--- a/99_Resources/python/XlateURLsForStandAlone.xlsx
+++ b/99_Resources/python/XlateURLsForStandAlone.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D64BB34-0292-43BC-B8AC-08218E08B9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC9F6E-6E72-4D33-9BF2-52472154A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="8655" windowWidth="16875" windowHeight="9165" activeTab="1" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$K$59</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="263">
   <si>
     <t>2021-10-07_Library_from_googleusercontent.com.jpg</t>
   </si>
@@ -760,6 +761,60 @@
   </si>
   <si>
     <t>python</t>
+  </si>
+  <si>
+    <t>https://youtu.be/c5UH3J40uWE</t>
+  </si>
+  <si>
+    <t>01_blink_extLED_setup_2023-04-28.mp4</t>
+  </si>
+  <si>
+    <t>https://youtube.com/shorts/qGxECSMQtAQ</t>
+  </si>
+  <si>
+    <t>01_blink_button_2023-04-20.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cnjk-xBvyEo</t>
+  </si>
+  <si>
+    <t>02A_fastled_blink_2023-04-28.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UdA5ehl802k</t>
+  </si>
+  <si>
+    <t>02B_sawtooth_2023-04-20.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/I-3vgafNRE8</t>
+  </si>
+  <si>
+    <t>02C_oval_button_2023-04-29.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sXV3qn8dh8o</t>
+  </si>
+  <si>
+    <t>02D_sinelon_2023-04-29.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/0KehSIJmKcs</t>
+  </si>
+  <si>
+    <t>03_Theremin_final_2023-04-29.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G7ARC0xHXRg</t>
+  </si>
+  <si>
+    <t>04_ThereminSound_final_2023-04-29.mp4</t>
+  </si>
+  <si>
+    <t>https://youtu.be/M8Xc4aVh5Hc</t>
+  </si>
+  <si>
+    <t>04_VoiceCommands_and_VC_DemoReel_02.mp4</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F39D85-F7DF-497F-82BB-6973E3751EF7}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="C74" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C112" sqref="C112:C119"/>
     </sheetView>
   </sheetViews>
@@ -2001,17 +2056,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C540BD1-6218-4126-83E7-AFCE5D23BAAF}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="114.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -3308,7 +3363,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ref="A34:A65" si="10">LEN(B34)</f>
+        <f t="shared" ref="A34:A59" si="10">LEN(B34)</f>
         <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3330,7 +3385,7 @@
         <v>ArduinoCode/AllThePatterns</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K65" si="11">"    ["""&amp;B34&amp;""", """&amp;J34&amp;"""],"</f>
+        <f t="shared" ref="K34:K59" si="11">"    ["""&amp;B34&amp;""", """&amp;J34&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/AllThePatterns", "ArduinoCode/AllThePatterns"],</v>
       </c>
     </row>
@@ -4154,156 +4209,332 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+      <c r="A60">
+        <f>LEN(B60)</f>
+        <v>38</v>
+      </c>
+      <c r="B60" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="J60" t="str">
+        <f>"YouTube/"&amp;D60</f>
+        <v>YouTube/01_blink_button_2023-04-20.mp4</v>
+      </c>
+      <c r="K60" t="str">
+        <f>"    ["""&amp;B60&amp;""", """&amp;J60&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtube.com/shorts/qGxECSMQtAQ", "YouTube/01_blink_button_2023-04-20.mp4"],</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="A61">
+        <f>LEN(B61)</f>
+        <v>28</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" ref="J61:J68" si="14">"YouTube/"&amp;D61</f>
+        <v>YouTube/01_blink_extLED_setup_2023-04-28.mp4</v>
+      </c>
+      <c r="K61" t="str">
+        <f>"    ["""&amp;B61&amp;""", """&amp;J61&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/c5UH3J40uWE", "YouTube/01_blink_extLED_setup_2023-04-28.mp4"],</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+      <c r="A62">
+        <f>LEN(B62)</f>
+        <v>28</v>
+      </c>
+      <c r="B62" t="s">
+        <v>249</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>250</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/02A_fastled_blink_2023-04-28.mp4</v>
+      </c>
+      <c r="K62" t="str">
+        <f>"    ["""&amp;B62&amp;""", """&amp;J62&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/cnjk-xBvyEo", "YouTube/02A_fastled_blink_2023-04-28.mp4"],</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+      <c r="A63">
+        <f>LEN(B63)</f>
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/02B_sawtooth_2023-04-20.mp4</v>
+      </c>
+      <c r="K63" t="str">
+        <f>"    ["""&amp;B63&amp;""", """&amp;J63&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/UdA5ehl802k", "YouTube/02B_sawtooth_2023-04-20.mp4"],</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J73" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J74" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J77" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J79" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J80" t="s">
-        <v>191</v>
-      </c>
+      <c r="A64">
+        <f>LEN(B64)</f>
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" t="s">
+        <v>254</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/02C_oval_button_2023-04-29.mp4</v>
+      </c>
+      <c r="K64" t="str">
+        <f>"    ["""&amp;B64&amp;""", """&amp;J64&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/I-3vgafNRE8", "YouTube/02C_oval_button_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>LEN(B65)</f>
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/02D_sinelon_2023-04-29.mp4</v>
+      </c>
+      <c r="K65" t="str">
+        <f>"    ["""&amp;B65&amp;""", """&amp;J65&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/sXV3qn8dh8o", "YouTube/02D_sinelon_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>LEN(B66)</f>
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>258</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/03_Theremin_final_2023-04-29.mp4</v>
+      </c>
+      <c r="K66" t="str">
+        <f>"    ["""&amp;B66&amp;""", """&amp;J66&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/0KehSIJmKcs", "YouTube/03_Theremin_final_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>LEN(B67)</f>
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>260</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/04_ThereminSound_final_2023-04-29.mp4</v>
+      </c>
+      <c r="K67" t="str">
+        <f>"    ["""&amp;B67&amp;""", """&amp;J67&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/G7ARC0xHXRg", "YouTube/04_ThereminSound_final_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>LEN(B68)</f>
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="14"/>
+        <v>YouTube/04_VoiceCommands_and_VC_DemoReel_02.mp4</v>
+      </c>
+      <c r="K68" t="str">
+        <f>"    ["""&amp;B68&amp;""", """&amp;J68&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/M8Xc4aVh5Hc", "YouTube/04_VoiceCommands_and_VC_DemoReel_02.mp4"],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J102" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K59" xr:uid="{9C540BD1-6218-4126-83E7-AFCE5D23BAAF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K59">
-    <sortCondition descending="1" ref="A2:A59"/>
-    <sortCondition ref="B2:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:K68">
+    <sortCondition descending="1" ref="A60:A68"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" xr:uid="{EB67CE3E-1E20-49CF-B57E-A0AF5AE40E6E}"/>
@@ -4313,4 +4544,131 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCAD21-0F7B-4758-92D6-6CB5F17FACC1}">
+  <dimension ref="A2:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="str">
+        <f>A2</f>
+        <v>https://youtu.be/c5UH3J40uWE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="str">
+        <f>D2&amp;"\|"&amp;A3</f>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D10" si="0">D3&amp;"\|"&amp;A4</f>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k\|https://youtu.be/I-3vgafNRE8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k\|https://youtu.be/I-3vgafNRE8\|https://youtu.be/sXV3qn8dh8o</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k\|https://youtu.be/I-3vgafNRE8\|https://youtu.be/sXV3qn8dh8o\|https://youtu.be/0KehSIJmKcs</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k\|https://youtu.be/I-3vgafNRE8\|https://youtu.be/sXV3qn8dh8o\|https://youtu.be/0KehSIJmKcs\|https://youtu.be/G7ARC0xHXRg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>https://youtu.be/c5UH3J40uWE\|https://youtube.com/shorts/qGxECSMQtAQ\|https://youtu.be/cnjk-xBvyEo\|https://youtu.be/UdA5ehl802k\|https://youtu.be/I-3vgafNRE8\|https://youtu.be/sXV3qn8dh8o\|https://youtu.be/0KehSIJmKcs\|https://youtu.be/G7ARC0xHXRg\|https://youtu.be/M8Xc4aVh5Hc</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/99_Resources/python/XlateURLsForStandAlone.xlsx
+++ b/99_Resources/python/XlateURLsForStandAlone.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC9F6E-6E72-4D33-9BF2-52472154A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276DFC2-15CE-48FC-87D1-1D15B78591C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C540BD1-6218-4126-83E7-AFCE5D23BAAF}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:D69"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4213,7 +4213,7 @@
         <f>LEN(B60)</f>
         <v>38</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C60" t="s">
@@ -4540,9 +4540,10 @@
     <hyperlink ref="B50" r:id="rId1" xr:uid="{EB67CE3E-1E20-49CF-B57E-A0AF5AE40E6E}"/>
     <hyperlink ref="B58" r:id="rId2" xr:uid="{8B47E7AD-D542-4FFF-AE7B-26337C515F0D}"/>
     <hyperlink ref="B45" r:id="rId3" xr:uid="{41D65414-9954-4D0F-A9F3-817162AA9DDA}"/>
+    <hyperlink ref="B60" r:id="rId4" xr:uid="{39FA7108-7901-4714-B768-69CEFE730CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4550,7 +4551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCAD21-0F7B-4758-92D6-6CB5F17FACC1}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>

--- a/99_Resources/python/XlateURLsForStandAlone.xlsx
+++ b/99_Resources/python/XlateURLsForStandAlone.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276DFC2-15CE-48FC-87D1-1D15B78591C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E477B-0601-4B21-8067-2453949B1109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="2" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="270">
   <si>
     <t>2021-10-07_Library_from_googleusercontent.com.jpg</t>
   </si>
@@ -815,6 +815,27 @@
   </si>
   <si>
     <t>04_VoiceCommands_and_VC_DemoReel_02.mp4</t>
+  </si>
+  <si>
+    <t>https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/SawtoothRevisited/SawtoothRevisited.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/HelloWorld/HelloWorld.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/Oval/Oval.ino</t>
+  </si>
+  <si>
+    <t>https://github.com/Mark-MDO47/ArduinoClass/blob/master/04_TheFinale/README.md</t>
+  </si>
+  <si>
+    <t>ArduinoCode/SawtoothRevisited/SawtoothRevisited.ino</t>
+  </si>
+  <si>
+    <t>ArduinoCode/HelloWorld/HelloWorld.ino</t>
+  </si>
+  <si>
+    <t>ArduinoCode/Oval/Oval.ino</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +2077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C540BD1-6218-4126-83E7-AFCE5D23BAAF}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,905 +2127,871 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A33" si="0">LEN(B2)</f>
+        <f>LEN(B2)</f>
         <v>111</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C44" si="1">FIND("master/",B2)+LEN("master")+1</f>
+        <f>FIND("master/",B2)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D22" si="2">MID(B2,C2,9999)</f>
+        <f>MID(B2,C2,9999)</f>
         <v>03_SonarRangeDetector/03_SonarRangeDetector_ExtraFun.pdf</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E22" si="3">IF(COUNTIF($D2,"*.pdf*"),1,0)</f>
+        <f>IF(COUNTIF($D2,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F22" si="4">IF(COUNTIF($D2,"*.xls*"),1,0)</f>
+        <f>IF(COUNTIF($D2,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G22" si="5">IF(COUNTIF($D2,"*.md*"),1,0)</f>
+        <f>IF(COUNTIF($D2,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H22" si="6">IF(0=SUM(E2:G2),1,0)</f>
+        <f>IF(0=SUM(E2:G2),1,0)</f>
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J22" si="7">IF(E2+F2,MID(D2,1+FIND("/",D2),999),IF(G2&gt;0,SUBSTITUTE(SUBSTITUTE(D2,"/README.md",".html"),"/","_"),SUBSTITUTE(D2,"/","_")&amp;".html"))</f>
+        <f>IF(E2+F2,MID(D2,1+FIND("/",D2),999),IF(G2&gt;0,SUBSTITUTE(SUBSTITUTE(D2,"/README.md",".html"),"/","_"),SUBSTITUTE(D2,"/","_")&amp;".html"))</f>
         <v>03_SonarRangeDetector_ExtraFun.pdf</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="8">"    ["""&amp;B2&amp;""", """&amp;J2&amp;"""],"</f>
+        <f>"    ["""&amp;B2&amp;""", """&amp;J2&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/03_SonarRangeDetector/03_SonarRangeDetector_ExtraFun.pdf", "03_SonarRangeDetector_ExtraFun.pdf"],</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" si="0"/>
+        <f>LEN(B3)</f>
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C3">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B3)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B3,C3,9999)</f>
         <v>02_PersistenceOfVision/02_PersistenceOfVision_stick.pdf</v>
       </c>
       <c r="E3">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D3,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D3,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D3,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E3:G3),1,0)</f>
         <v>0</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E3+F3,MID(D3,1+FIND("/",D3),999),IF(G3&gt;0,SUBSTITUTE(SUBSTITUTE(D3,"/README.md",".html"),"/","_"),SUBSTITUTE(D3,"/","_")&amp;".html"))</f>
         <v>02_PersistenceOfVision_stick.pdf</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="8"/>
+        <f>"    ["""&amp;B3&amp;""", """&amp;J3&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/02_PersistenceOfVision_stick.pdf", "02_PersistenceOfVision_stick.pdf"],</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f>LEN(B4)</f>
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B4)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B4,C4,9999)</f>
         <v>04_TheFinale/04_TheFinale_DemoReelVoiceCommand_I2C.pdf</v>
       </c>
       <c r="E4">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D4,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D4,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D4,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E4:G4),1,0)</f>
         <v>0</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E4+F4,MID(D4,1+FIND("/",D4),999),IF(G4&gt;0,SUBSTITUTE(SUBSTITUTE(D4,"/README.md",".html"),"/","_"),SUBSTITUTE(D4,"/","_")&amp;".html"))</f>
         <v>04_TheFinale_DemoReelVoiceCommand_I2C.pdf</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="8"/>
+        <f>"    ["""&amp;B4&amp;""", """&amp;J4&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/04_TheFinale/04_TheFinale_DemoReelVoiceCommand_I2C.pdf", "04_TheFinale_DemoReelVoiceCommand_I2C.pdf"],</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f>LEN(B5)</f>
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B5)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B5,C5,9999)</f>
         <v>01_BlinkingLED/01_Blinking_LED_part_A_Schematic.pdf</v>
       </c>
       <c r="E5">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D5,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D5,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D5,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E5:G5),1,0)</f>
         <v>0</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E5+F5,MID(D5,1+FIND("/",D5),999),IF(G5&gt;0,SUBSTITUTE(SUBSTITUTE(D5,"/README.md",".html"),"/","_"),SUBSTITUTE(D5,"/","_")&amp;".html"))</f>
         <v>01_Blinking_LED_part_A_Schematic.pdf</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="8"/>
+        <f>"    ["""&amp;B5&amp;""", """&amp;J5&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/01_BlinkingLED/01_Blinking_LED_part_A_Schematic.pdf", "01_Blinking_LED_part_A_Schematic.pdf"],</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f>LEN(B6)</f>
         <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B6)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B6,C6,9999)</f>
         <v>01_BlinkingLED/01_Blinking_LED_part_B_Schematic.pdf</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D6,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D6,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D6,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E6:G6),1,0)</f>
         <v>0</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E6+F6,MID(D6,1+FIND("/",D6),999),IF(G6&gt;0,SUBSTITUTE(SUBSTITUTE(D6,"/README.md",".html"),"/","_"),SUBSTITUTE(D6,"/","_")&amp;".html"))</f>
         <v>01_Blinking_LED_part_B_Schematic.pdf</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="8"/>
+        <f>"    ["""&amp;B6&amp;""", """&amp;J6&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/01_BlinkingLED/01_Blinking_LED_part_B_Schematic.pdf", "01_Blinking_LED_part_B_Schematic.pdf"],</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/02_PersistenceOfVision.pdf</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="7"/>
-        <v>02_PersistenceOfVision.pdf</v>
+        <f>LEN(B7)</f>
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>267</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/02_PersistenceOfVision.pdf", "02_PersistenceOfVision.pdf"],</v>
+        <f>"    ["""&amp;B7&amp;""", """&amp;J7&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/SawtoothRevisited/SawtoothRevisited.ino", "ArduinoCode/SawtoothRevisited/SawtoothRevisited.ino"],</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
-        <v>102</v>
+        <f>LEN(B8)</f>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B8)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>03_SonarRangeDetector/03_SonarRangeDetector.pdf</v>
+        <f>MID(B8,C8,9999)</f>
+        <v>02_PersistenceOfVision/02_PersistenceOfVision.pdf</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D8,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D8,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D8,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E8:G8),1,0)</f>
         <v>0</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="7"/>
-        <v>03_SonarRangeDetector.pdf</v>
+        <f>IF(E8+F8,MID(D8,1+FIND("/",D8),999),IF(G8&gt;0,SUBSTITUTE(SUBSTITUTE(D8,"/README.md",".html"),"/","_"),SUBSTITUTE(D8,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision.pdf</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/03_SonarRangeDetector/03_SonarRangeDetector.pdf", "03_SonarRangeDetector.pdf"],</v>
+        <f>"    ["""&amp;B8&amp;""", """&amp;J8&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/02_PersistenceOfVision.pdf", "02_PersistenceOfVision.pdf"],</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
-        <v>98</v>
+        <f>LEN(B9)</f>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B9)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
-        <v>04_TheFinale/04_TheFinale_ThereminSound.pdf</v>
+        <f>MID(B9,C9,9999)</f>
+        <v>03_SonarRangeDetector/03_SonarRangeDetector.pdf</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D9,"*.pdf*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D9,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D9,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E9:G9),1,0)</f>
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="7"/>
-        <v>04_TheFinale_ThereminSound.pdf</v>
+        <f>IF(E9+F9,MID(D9,1+FIND("/",D9),999),IF(G9&gt;0,SUBSTITUTE(SUBSTITUTE(D9,"/README.md",".html"),"/","_"),SUBSTITUTE(D9,"/","_")&amp;".html"))</f>
+        <v>03_SonarRangeDetector.pdf</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/04_TheFinale/04_TheFinale_ThereminSound.pdf", "04_TheFinale_ThereminSound.pdf"],</v>
+        <f>"    ["""&amp;B9&amp;""", """&amp;J9&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/03_SonarRangeDetector/03_SonarRangeDetector.pdf", "03_SonarRangeDetector.pdf"],</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>96</v>
+        <f>LEN(B10)</f>
+        <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B10)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/Pattern_Calcs.xlsx</v>
+        <f>MID(B10,C10,9999)</f>
+        <v>04_TheFinale/04_TheFinale_ThereminSound.pdf</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(COUNTIF($D10,"*.pdf*"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>IF(COUNTIF($D10,"*.xls*"),1,0)</f>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D10,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E10:G10),1,0)</f>
         <v>0</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="7"/>
-        <v>Pattern_Calcs.xlsx</v>
+        <f>IF(E10+F10,MID(D10,1+FIND("/",D10),999),IF(G10&gt;0,SUBSTITUTE(SUBSTITUTE(D10,"/README.md",".html"),"/","_"),SUBSTITUTE(D10,"/","_")&amp;".html"))</f>
+        <v>04_TheFinale_ThereminSound.pdf</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Pattern_Calcs.xlsx", "Pattern_Calcs.xlsx"],</v>
+        <f>"    ["""&amp;B10&amp;""", """&amp;J10&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/04_TheFinale/04_TheFinale_ThereminSound.pdf", "04_TheFinale_ThereminSound.pdf"],</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>94</v>
+        <f>LEN(B11)</f>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B11)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/Part_A/README.md</v>
+        <f>MID(B11,C11,9999)</f>
+        <v>02_PersistenceOfVision/Pattern_Calcs.xlsx</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D11,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(COUNTIF($D11,"*.xls*"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(COUNTIF($D11,"*.md*"),1,0)</f>
+        <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E11:G11),1,0)</f>
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="7"/>
-        <v>02_PersistenceOfVision_Part_A.html</v>
+        <f>IF(E11+F11,MID(D11,1+FIND("/",D11),999),IF(G11&gt;0,SUBSTITUTE(SUBSTITUTE(D11,"/README.md",".html"),"/","_"),SUBSTITUTE(D11,"/","_")&amp;".html"))</f>
+        <v>Pattern_Calcs.xlsx</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_A/README.md", "02_PersistenceOfVision_Part_A.html"],</v>
+        <f>"    ["""&amp;B11&amp;""", """&amp;J11&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Pattern_Calcs.xlsx", "Pattern_Calcs.xlsx"],</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f>LEN(B12)</f>
         <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B12)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/Part_B/README.md</v>
+        <f>MID(B12,C12,9999)</f>
+        <v>02_PersistenceOfVision/Part_A/README.md</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D12,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D12,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D12,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E12:G12),1,0)</f>
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="7"/>
-        <v>02_PersistenceOfVision_Part_B.html</v>
+        <f>IF(E12+F12,MID(D12,1+FIND("/",D12),999),IF(G12&gt;0,SUBSTITUTE(SUBSTITUTE(D12,"/README.md",".html"),"/","_"),SUBSTITUTE(D12,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_A.html</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_B/README.md", "02_PersistenceOfVision_Part_B.html"],</v>
+        <f>"    ["""&amp;B12&amp;""", """&amp;J12&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_A/README.md", "02_PersistenceOfVision_Part_A.html"],</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f>LEN(B13)</f>
         <v>94</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B13)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/Part_C/README.md</v>
+        <f>MID(B13,C13,9999)</f>
+        <v>02_PersistenceOfVision/Part_B/README.md</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D13,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D13,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D13,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E13:G13),1,0)</f>
         <v>0</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="7"/>
-        <v>02_PersistenceOfVision_Part_C.html</v>
+        <f>IF(E13+F13,MID(D13,1+FIND("/",D13),999),IF(G13&gt;0,SUBSTITUTE(SUBSTITUTE(D13,"/README.md",".html"),"/","_"),SUBSTITUTE(D13,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_B.html</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_C/README.md", "02_PersistenceOfVision_Part_C.html"],</v>
+        <f>"    ["""&amp;B13&amp;""", """&amp;J13&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_B/README.md", "02_PersistenceOfVision_Part_B.html"],</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f>LEN(B14)</f>
         <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B14)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
-        <v>02_PersistenceOfVision/Part_D/README.md</v>
+        <f>MID(B14,C14,9999)</f>
+        <v>02_PersistenceOfVision/Part_C/README.md</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D14,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D14,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D14,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E14:G14),1,0)</f>
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
-        <v>02_PersistenceOfVision_Part_D.html</v>
+        <f>IF(E14+F14,MID(D14,1+FIND("/",D14),999),IF(G14&gt;0,SUBSTITUTE(SUBSTITUTE(D14,"/README.md",".html"),"/","_"),SUBSTITUTE(D14,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_C.html</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_D/README.md", "02_PersistenceOfVision_Part_D.html"],</v>
+        <f>"    ["""&amp;B14&amp;""", """&amp;J14&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_C/README.md", "02_PersistenceOfVision_Part_C.html"],</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f>LEN(B15)</f>
         <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B15)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/SawtoothRevisited/README.md</v>
+        <f>MID(B15,C15,9999)</f>
+        <v>02_PersistenceOfVision/Part_D/README.md</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D15,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D15,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D15,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E15:G15),1,0)</f>
         <v>0</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_SawtoothRevisited.html</v>
+        <f>IF(E15+F15,MID(D15,1+FIND("/",D15),999),IF(G15&gt;0,SUBSTITUTE(SUBSTITUTE(D15,"/README.md",".html"),"/","_"),SUBSTITUTE(D15,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_D.html</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/SawtoothRevisited/README.md", "ArduinoCode_SawtoothRevisited.html"],</v>
+        <f>"    ["""&amp;B15&amp;""", """&amp;J15&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/02_PersistenceOfVision/Part_D/README.md", "02_PersistenceOfVision_Part_D.html"],</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f>LEN(B16)</f>
         <v>94</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B16)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/VoiceCommands_I2C/README.md</v>
+        <f>MID(B16,C16,9999)</f>
+        <v>ArduinoCode/SawtoothRevisited/README.md</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D16,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D16,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D16,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E16:G16),1,0)</f>
         <v>0</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_VoiceCommands_I2C.html</v>
+        <f>IF(E16+F16,MID(D16,1+FIND("/",D16),999),IF(G16&gt;0,SUBSTITUTE(SUBSTITUTE(D16,"/README.md",".html"),"/","_"),SUBSTITUTE(D16,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_SawtoothRevisited.html</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_I2C/README.md", "ArduinoCode_VoiceCommands_I2C.html"],</v>
+        <f>"    ["""&amp;B16&amp;""", """&amp;J16&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/SawtoothRevisited/README.md", "ArduinoCode_SawtoothRevisited.html"],</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
-        <v>91</v>
+        <f>LEN(B17)</f>
+        <v>94</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B17)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/AllThePatterns/README.md</v>
+        <f>MID(B17,C17,9999)</f>
+        <v>ArduinoCode/VoiceCommands_I2C/README.md</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D17,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D17,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D17,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E17:G17),1,0)</f>
         <v>0</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_AllThePatterns.html</v>
+        <f>IF(E17+F17,MID(D17,1+FIND("/",D17),999),IF(G17&gt;0,SUBSTITUTE(SUBSTITUTE(D17,"/README.md",".html"),"/","_"),SUBSTITUTE(D17,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_VoiceCommands_I2C.html</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/AllThePatterns/README.md", "ArduinoCode_AllThePatterns.html"],</v>
+        <f>"    ["""&amp;B17&amp;""", """&amp;J17&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_I2C/README.md", "ArduinoCode_VoiceCommands_I2C.html"],</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/ThereminSound/README.md</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_ThereminSound.html</v>
+        <f>LEN(B18)</f>
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>264</v>
+      </c>
+      <c r="J18" t="s">
+        <v>268</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/ThereminSound/README.md", "ArduinoCode_ThereminSound.html"],</v>
+        <f>"    ["""&amp;B18&amp;""", """&amp;J18&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/HelloWorld/HelloWorld.ino", "ArduinoCode/HelloWorld/HelloWorld.ino"],</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <f>LEN(B19)</f>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B19)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/FastLEDBlink/README.md</v>
+        <f>MID(B19,C19,9999)</f>
+        <v>ArduinoCode/AllThePatterns/README.md</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D19,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D19,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D19,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E19:G19),1,0)</f>
         <v>0</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_FastLEDBlink.html</v>
+        <f>IF(E19+F19,MID(D19,1+FIND("/",D19),999),IF(G19&gt;0,SUBSTITUTE(SUBSTITUTE(D19,"/README.md",".html"),"/","_"),SUBSTITUTE(D19,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_AllThePatterns.html</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/FastLEDBlink/README.md", "ArduinoCode_FastLEDBlink.html"],</v>
+        <f>"    ["""&amp;B19&amp;""", """&amp;J19&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/AllThePatterns/README.md", "ArduinoCode_AllThePatterns.html"],</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>LEN(B20)</f>
+        <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B20)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/VC_DemoReel/README.md</v>
+        <f>MID(B20,C20,9999)</f>
+        <v>ArduinoCode/ThereminSound/README.md</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D20,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D20,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D20,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E20:G20),1,0)</f>
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_VC_DemoReel.html</v>
+        <f>IF(E20+F20,MID(D20,1+FIND("/",D20),999),IF(G20&gt;0,SUBSTITUTE(SUBSTITUTE(D20,"/README.md",".html"),"/","_"),SUBSTITUTE(D20,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_ThereminSound.html</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VC_DemoReel/README.md", "ArduinoCode_VC_DemoReel.html"],</v>
+        <f>"    ["""&amp;B20&amp;""", """&amp;J20&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/ThereminSound/README.md", "ArduinoCode_ThereminSound.html"],</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>87</v>
+        <f>LEN(B21)</f>
+        <v>89</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B21)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/HelloWorld/README.md</v>
+        <f>MID(B21,C21,9999)</f>
+        <v>ArduinoCode/FastLEDBlink/README.md</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D21,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D21,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D21,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E21:G21),1,0)</f>
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_HelloWorld.html</v>
+        <f>IF(E21+F21,MID(D21,1+FIND("/",D21),999),IF(G21&gt;0,SUBSTITUTE(SUBSTITUTE(D21,"/README.md",".html"),"/","_"),SUBSTITUTE(D21,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_FastLEDBlink.html</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/HelloWorld/README.md", "ArduinoCode_HelloWorld.html"],</v>
+        <f>"    ["""&amp;B21&amp;""", """&amp;J21&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/FastLEDBlink/README.md", "ArduinoCode_FastLEDBlink.html"],</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>LEN(B22)</f>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B22)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/DemoReel/README.md</v>
+        <f>MID(B22,C22,9999)</f>
+        <v>ArduinoCode/VC_DemoReel/README.md</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF($D22,"*.pdf*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D22,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D22,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E22:G22),1,0)</f>
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_DemoReel.html</v>
+        <f>IF(E22+F22,MID(D22,1+FIND("/",D22),999),IF(G22&gt;0,SUBSTITUTE(SUBSTITUTE(D22,"/README.md",".html"),"/","_"),SUBSTITUTE(D22,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_VC_DemoReel.html</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/DemoReel/README.md", "ArduinoCode_DemoReel.html"],</v>
+        <f>"    ["""&amp;B22&amp;""", """&amp;J22&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VC_DemoReel/README.md", "ArduinoCode_VC_DemoReel.html"],</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <f>LEN(B23)</f>
+        <v>87</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B23)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D23" t="str">
-        <f>SUBSTITUTE(MID(B23,C23,9999),"/","_")&amp;".html"</f>
-        <v>ArduinoCode_MDO_AllThePatterns.html</v>
+        <f>MID(B23,C23,9999)</f>
+        <v>ArduinoCode/HelloWorld/README.md</v>
+      </c>
+      <c r="E23">
+        <f>IF(COUNTIF($D23,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>IF(COUNTIF($D23,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>IF(COUNTIF($D23,"*.md*"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f>IF(0=SUM(E23:G23),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f>D23</f>
-        <v>ArduinoCode_MDO_AllThePatterns.html</v>
+        <f>IF(E23+F23,MID(D23,1+FIND("/",D23),999),IF(G23&gt;0,SUBSTITUTE(SUBSTITUTE(D23,"/README.md",".html"),"/","_"),SUBSTITUTE(D23,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_HelloWorld.html</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_AllThePatterns", "ArduinoCode_MDO_AllThePatterns.html"],</v>
+        <f>"    ["""&amp;B23&amp;""", """&amp;J23&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/HelloWorld/README.md", "ArduinoCode_HelloWorld.html"],</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f>LEN(B24)</f>
         <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B24)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ref="D24:D37" si="9">MID(B24,C24,9999)</f>
-        <v>ArduinoCode/Sawtooth/README.md</v>
+        <f>MID(B24,C24,9999)</f>
+        <v>ArduinoCode/DemoReel/README.md</v>
       </c>
       <c r="E24">
         <f>IF(COUNTIF($D24,"*.pdf*"),1,0)</f>
@@ -3024,97 +3011,94 @@
       </c>
       <c r="J24" t="str">
         <f>IF(E24+F24,MID(D24,1+FIND("/",D24),999),IF(G24&gt;0,SUBSTITUTE(SUBSTITUTE(D24,"/README.md",".html"),"/","_"),SUBSTITUTE(D24,"/","_")&amp;".html"))</f>
-        <v>ArduinoCode_Sawtooth.html</v>
+        <v>ArduinoCode_DemoReel.html</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Sawtooth/README.md", "ArduinoCode_Sawtooth.html"],</v>
+        <f>"    ["""&amp;B24&amp;""", """&amp;J24&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/DemoReel/README.md", "ArduinoCode_DemoReel.html"],</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>LEN(B25)</f>
         <v>85</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B25)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/Theremin/README.md</v>
-      </c>
-      <c r="E25">
-        <f>IF(COUNTIF($D25,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>IF(COUNTIF($D25,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>IF(COUNTIF($D25,"*.md*"),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <f>IF(0=SUM(E25:G25),1,0)</f>
-        <v>0</v>
+        <f>SUBSTITUTE(MID(B25,C25,9999),"/","_")&amp;".html"</f>
+        <v>ArduinoCode_MDO_AllThePatterns.html</v>
       </c>
       <c r="J25" t="str">
-        <f>IF(E25+F25,MID(D25,1+FIND("/",D25),999),IF(G25&gt;0,SUBSTITUTE(SUBSTITUTE(D25,"/README.md",".html"),"/","_"),SUBSTITUTE(D25,"/","_")&amp;".html"))</f>
-        <v>ArduinoCode_Theremin.html</v>
+        <f>D25</f>
+        <v>ArduinoCode_MDO_AllThePatterns.html</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Theremin/README.md", "ArduinoCode_Theremin.html"],</v>
+        <f>"    ["""&amp;B25&amp;""", """&amp;J25&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_AllThePatterns", "ArduinoCode_MDO_AllThePatterns.html"],</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f>LEN(B26)</f>
         <v>85</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B26)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/VoiceCommands_UART</v>
-      </c>
-      <c r="I26" t="s">
-        <v>220</v>
+        <f>MID(B26,C26,9999)</f>
+        <v>ArduinoCode/Sawtooth/README.md</v>
+      </c>
+      <c r="E26">
+        <f>IF(COUNTIF($D26,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>IF(COUNTIF($D26,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>IF(COUNTIF($D26,"*.md*"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>IF(0=SUM(E26:G26),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f>D26</f>
-        <v>ArduinoCode/VoiceCommands_UART</v>
+        <f>IF(E26+F26,MID(D26,1+FIND("/",D26),999),IF(G26&gt;0,SUBSTITUTE(SUBSTITUTE(D26,"/README.md",".html"),"/","_"),SUBSTITUTE(D26,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_Sawtooth.html</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_UART", "ArduinoCode/VoiceCommands_UART"],</v>
+        <f>"    ["""&amp;B26&amp;""", """&amp;J26&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Sawtooth/README.md", "ArduinoCode_Sawtooth.html"],</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f>LEN(B27)</f>
+        <v>85</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B27)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="9"/>
-        <v>02_PersistenceOfVision/Part_A</v>
+        <f>MID(B27,C27,9999)</f>
+        <v>ArduinoCode/Theremin/README.md</v>
       </c>
       <c r="E27">
         <f>IF(COUNTIF($D27,"*.pdf*"),1,0)</f>
@@ -3126,77 +3110,64 @@
       </c>
       <c r="G27">
         <f>IF(COUNTIF($D27,"*.md*"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <f>IF(0=SUM(E27:G27),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="str">
         <f>IF(E27+F27,MID(D27,1+FIND("/",D27),999),IF(G27&gt;0,SUBSTITUTE(SUBSTITUTE(D27,"/README.md",".html"),"/","_"),SUBSTITUTE(D27,"/","_")&amp;".html"))</f>
-        <v>02_PersistenceOfVision_Part_A.html</v>
+        <v>ArduinoCode_Theremin.html</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_A", "02_PersistenceOfVision_Part_A.html"],</v>
+        <f>"    ["""&amp;B27&amp;""", """&amp;J27&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Theremin/README.md", "ArduinoCode_Theremin.html"],</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>84</v>
+        <f>LEN(B28)</f>
+        <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B28)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="9"/>
-        <v>02_PersistenceOfVision/Part_B</v>
-      </c>
-      <c r="E28">
-        <f>IF(COUNTIF($D28,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>IF(COUNTIF($D28,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>IF(COUNTIF($D28,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f>IF(0=SUM(E28:G28),1,0)</f>
-        <v>1</v>
+        <f>MID(B28,C28,9999)</f>
+        <v>ArduinoCode/VoiceCommands_UART</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
       </c>
       <c r="J28" t="str">
-        <f>IF(E28+F28,MID(D28,1+FIND("/",D28),999),IF(G28&gt;0,SUBSTITUTE(SUBSTITUTE(D28,"/README.md",".html"),"/","_"),SUBSTITUTE(D28,"/","_")&amp;".html"))</f>
-        <v>02_PersistenceOfVision_Part_B.html</v>
+        <f>D28</f>
+        <v>ArduinoCode/VoiceCommands_UART</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_B", "02_PersistenceOfVision_Part_B.html"],</v>
+        <f>"    ["""&amp;B28&amp;""", """&amp;J28&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_UART", "ArduinoCode/VoiceCommands_UART"],</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f>LEN(B29)</f>
         <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B29)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="9"/>
-        <v>02_PersistenceOfVision/Part_C</v>
+        <f>MID(B29,C29,9999)</f>
+        <v>02_PersistenceOfVision/Part_A</v>
       </c>
       <c r="E29">
         <f>IF(COUNTIF($D29,"*.pdf*"),1,0)</f>
@@ -3216,28 +3187,28 @@
       </c>
       <c r="J29" t="str">
         <f>IF(E29+F29,MID(D29,1+FIND("/",D29),999),IF(G29&gt;0,SUBSTITUTE(SUBSTITUTE(D29,"/README.md",".html"),"/","_"),SUBSTITUTE(D29,"/","_")&amp;".html"))</f>
-        <v>02_PersistenceOfVision_Part_C.html</v>
+        <v>02_PersistenceOfVision_Part_A.html</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_C", "02_PersistenceOfVision_Part_C.html"],</v>
+        <f>"    ["""&amp;B29&amp;""", """&amp;J29&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_A", "02_PersistenceOfVision_Part_A.html"],</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f>LEN(B30)</f>
         <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B30)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="9"/>
-        <v>02_PersistenceOfVision/Part_D</v>
+        <f>MID(B30,C30,9999)</f>
+        <v>02_PersistenceOfVision/Part_B</v>
       </c>
       <c r="E30">
         <f>IF(COUNTIF($D30,"*.pdf*"),1,0)</f>
@@ -3257,153 +3228,166 @@
       </c>
       <c r="J30" t="str">
         <f>IF(E30+F30,MID(D30,1+FIND("/",D30),999),IF(G30&gt;0,SUBSTITUTE(SUBSTITUTE(D30,"/README.md",".html"),"/","_"),SUBSTITUTE(D30,"/","_")&amp;".html"))</f>
-        <v>02_PersistenceOfVision_Part_D.html</v>
+        <v>02_PersistenceOfVision_Part_B.html</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_D", "02_PersistenceOfVision_Part_D.html"],</v>
+        <f>"    ["""&amp;B30&amp;""", """&amp;J30&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_B", "02_PersistenceOfVision_Part_B.html"],</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f>LEN(B31)</f>
         <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B31)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/SawtoothRevisited</v>
-      </c>
-      <c r="I31" t="s">
-        <v>220</v>
+        <f>MID(B31,C31,9999)</f>
+        <v>02_PersistenceOfVision/Part_C</v>
+      </c>
+      <c r="E31">
+        <f>IF(COUNTIF($D31,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>IF(COUNTIF($D31,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>IF(COUNTIF($D31,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>IF(0=SUM(E31:G31),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J31" t="str">
-        <f>D31</f>
-        <v>ArduinoCode/SawtoothRevisited</v>
+        <f>IF(E31+F31,MID(D31,1+FIND("/",D31),999),IF(G31&gt;0,SUBSTITUTE(SUBSTITUTE(D31,"/README.md",".html"),"/","_"),SUBSTITUTE(D31,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_C.html</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/SawtoothRevisited", "ArduinoCode/SawtoothRevisited"],</v>
+        <f>"    ["""&amp;B31&amp;""", """&amp;J31&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_C", "02_PersistenceOfVision_Part_C.html"],</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f>LEN(B32)</f>
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B32)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/VoiceCommands_I2C</v>
-      </c>
-      <c r="I32" t="s">
-        <v>220</v>
+        <f>MID(B32,C32,9999)</f>
+        <v>02_PersistenceOfVision/Part_D</v>
+      </c>
+      <c r="E32">
+        <f>IF(COUNTIF($D32,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>IF(COUNTIF($D32,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>IF(COUNTIF($D32,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>IF(0=SUM(E32:G32),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J32" t="str">
-        <f>D32</f>
-        <v>ArduinoCode/VoiceCommands_I2C</v>
+        <f>IF(E32+F32,MID(D32,1+FIND("/",D32),999),IF(G32&gt;0,SUBSTITUTE(SUBSTITUTE(D32,"/README.md",".html"),"/","_"),SUBSTITUTE(D32,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision_Part_D.html</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_I2C", "ArduinoCode/VoiceCommands_I2C"],</v>
+        <f>"    ["""&amp;B32&amp;""", """&amp;J32&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision/Part_D", "02_PersistenceOfVision_Part_D.html"],</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <f>LEN(B33)</f>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B33)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/Blink/README.md</v>
-      </c>
-      <c r="E33">
-        <f>IF(COUNTIF($D33,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>IF(COUNTIF($D33,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f>IF(COUNTIF($D33,"*.md*"),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <f>IF(0=SUM(E33:G33),1,0)</f>
-        <v>0</v>
+        <f>MID(B33,C33,9999)</f>
+        <v>ArduinoCode/SawtoothRevisited</v>
+      </c>
+      <c r="I33" t="s">
+        <v>220</v>
       </c>
       <c r="J33" t="str">
-        <f>IF(E33+F33,MID(D33,1+FIND("/",D33),999),IF(G33&gt;0,SUBSTITUTE(SUBSTITUTE(D33,"/README.md",".html"),"/","_"),SUBSTITUTE(D33,"/","_")&amp;".html"))</f>
-        <v>ArduinoCode_Blink.html</v>
+        <f>D33</f>
+        <v>ArduinoCode/SawtoothRevisited</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Blink/README.md", "ArduinoCode_Blink.html"],</v>
+        <f>"    ["""&amp;B33&amp;""", """&amp;J33&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/SawtoothRevisited", "ArduinoCode/SawtoothRevisited"],</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ref="A34:A59" si="10">LEN(B34)</f>
-        <v>81</v>
+        <f>LEN(B34)</f>
+        <v>84</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B34)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/AllThePatterns</v>
+        <f>MID(B34,C34,9999)</f>
+        <v>ArduinoCode/VoiceCommands_I2C</v>
       </c>
       <c r="I34" t="s">
         <v>220</v>
       </c>
       <c r="J34" t="str">
         <f>D34</f>
-        <v>ArduinoCode/AllThePatterns</v>
+        <v>ArduinoCode/VoiceCommands_I2C</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ref="K34:K59" si="11">"    ["""&amp;B34&amp;""", """&amp;J34&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/AllThePatterns", "ArduinoCode/AllThePatterns"],</v>
+        <f>"    ["""&amp;B34&amp;""", """&amp;J34&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VoiceCommands_I2C", "ArduinoCode/VoiceCommands_I2C"],</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="10"/>
-        <v>81</v>
+        <f>LEN(B35)</f>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B35)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/Oval/README.md</v>
+        <f>MID(B35,C35,9999)</f>
+        <v>ArduinoCode/Blink/README.md</v>
       </c>
       <c r="E35">
         <f>IF(COUNTIF($D35,"*.pdf*"),1,0)</f>
@@ -3423,272 +3407,247 @@
       </c>
       <c r="J35" t="str">
         <f>IF(E35+F35,MID(D35,1+FIND("/",D35),999),IF(G35&gt;0,SUBSTITUTE(SUBSTITUTE(D35,"/README.md",".html"),"/","_"),SUBSTITUTE(D35,"/","_")&amp;".html"))</f>
-        <v>ArduinoCode_Oval.html</v>
+        <v>ArduinoCode_Blink.html</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Oval/README.md", "ArduinoCode_Oval.html"],</v>
+        <f>"    ["""&amp;B35&amp;""", """&amp;J35&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Blink/README.md", "ArduinoCode_Blink.html"],</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="10"/>
-        <v>80</v>
+        <f>LEN(B36)</f>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B36)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/ThereminSound</v>
+        <f>MID(B36,C36,9999)</f>
+        <v>ArduinoCode/AllThePatterns</v>
       </c>
       <c r="I36" t="s">
         <v>220</v>
       </c>
       <c r="J36" t="str">
         <f>D36</f>
-        <v>ArduinoCode/ThereminSound</v>
+        <v>ArduinoCode/AllThePatterns</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/ThereminSound", "ArduinoCode/ThereminSound"],</v>
+        <f>"    ["""&amp;B36&amp;""", """&amp;J36&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/AllThePatterns", "ArduinoCode/AllThePatterns"],</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="10"/>
-        <v>79</v>
+        <f>LEN(B37)</f>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B37)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="9"/>
-        <v>ArduinoCode/FastLEDBlink</v>
-      </c>
-      <c r="I37" t="s">
-        <v>220</v>
+        <f>MID(B37,C37,9999)</f>
+        <v>ArduinoCode/Oval/README.md</v>
+      </c>
+      <c r="E37">
+        <f>IF(COUNTIF($D37,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>IF(COUNTIF($D37,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>IF(COUNTIF($D37,"*.md*"),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f>IF(0=SUM(E37:G37),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J37" t="str">
-        <f>D37</f>
-        <v>ArduinoCode/FastLEDBlink</v>
+        <f>IF(E37+F37,MID(D37,1+FIND("/",D37),999),IF(G37&gt;0,SUBSTITUTE(SUBSTITUTE(D37,"/README.md",".html"),"/","_"),SUBSTITUTE(D37,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_Oval.html</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/FastLEDBlink", "ArduinoCode/FastLEDBlink"],</v>
+        <f>"    ["""&amp;B37&amp;""", """&amp;J37&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Oval/README.md", "ArduinoCode_Oval.html"],</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="10"/>
-        <v>79</v>
+        <f>LEN(B38)</f>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B38)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D38" t="str">
-        <f>SUBSTITUTE(MID(B38,C38,9999),"/","_")&amp;".html"</f>
-        <v>ArduinoCode_MDO_DemoReel.html</v>
+        <f>MID(B38,C38,9999)</f>
+        <v>ArduinoCode/ThereminSound</v>
+      </c>
+      <c r="I38" t="s">
+        <v>220</v>
       </c>
       <c r="J38" t="str">
         <f>D38</f>
-        <v>ArduinoCode_MDO_DemoReel.html</v>
+        <v>ArduinoCode/ThereminSound</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_DemoReel", "ArduinoCode_MDO_DemoReel.html"],</v>
+        <f>"    ["""&amp;B38&amp;""", """&amp;J38&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/ThereminSound", "ArduinoCode/ThereminSound"],</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D39" t="str">
-        <f>SUBSTITUTE(MID(B39,C39,9999),"/","_")&amp;".html"</f>
-        <v>ArduinoCode_MDO_Theremin.html</v>
-      </c>
-      <c r="J39" t="str">
-        <f>D39</f>
-        <v>ArduinoCode_MDO_Theremin.html</v>
+        <f>LEN(B39)</f>
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" t="s">
+        <v>269</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_Theremin", "ArduinoCode_MDO_Theremin.html"],</v>
+        <f>"    ["""&amp;B39&amp;""", """&amp;J39&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/ArduinoCode/Oval/Oval.ino", "ArduinoCode/Oval/Oval.ino"],</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="10"/>
-        <v>78</v>
+        <f>LEN(B40)</f>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B40)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D40" t="str">
         <f>MID(B40,C40,9999)</f>
-        <v>ArduinoCode/VC_DemoReel</v>
+        <v>ArduinoCode/FastLEDBlink</v>
       </c>
       <c r="I40" t="s">
         <v>220</v>
       </c>
       <c r="J40" t="str">
         <f>D40</f>
-        <v>ArduinoCode/VC_DemoReel</v>
+        <v>ArduinoCode/FastLEDBlink</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VC_DemoReel", "ArduinoCode/VC_DemoReel"],</v>
+        <f>"    ["""&amp;B40&amp;""", """&amp;J40&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/FastLEDBlink", "ArduinoCode/FastLEDBlink"],</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="10"/>
-        <v>77</v>
+        <f>LEN(B41)</f>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B41)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D41" t="str">
-        <f>MID(B41,C41,9999)</f>
-        <v>99_Resources/README.md</v>
-      </c>
-      <c r="E41">
-        <f>IF(COUNTIF($D41,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>IF(COUNTIF($D41,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f>IF(COUNTIF($D41,"*.md*"),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <f>IF(0=SUM(E41:G41),1,0)</f>
-        <v>0</v>
+        <f>SUBSTITUTE(MID(B41,C41,9999),"/","_")&amp;".html"</f>
+        <v>ArduinoCode_MDO_DemoReel.html</v>
       </c>
       <c r="J41" t="str">
-        <f>IF(E41+F41,MID(D41,1+FIND("/",D41),999),IF(G41&gt;0,SUBSTITUTE(SUBSTITUTE(D41,"/README.md",".html"),"/","_"),SUBSTITUTE(D41,"/","_")&amp;".html"))</f>
-        <v>99_Resources.html</v>
+        <f>D41</f>
+        <v>ArduinoCode_MDO_DemoReel.html</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/99_Resources/README.md", "99_Resources.html"],</v>
+        <f>"    ["""&amp;B41&amp;""", """&amp;J41&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_DemoReel", "ArduinoCode_MDO_DemoReel.html"],</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="10"/>
-        <v>77</v>
+        <f>LEN(B42)</f>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B42)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D42" t="str">
-        <f>MID(B42,C42,9999)</f>
-        <v>02_PersistenceOfVision</v>
-      </c>
-      <c r="E42">
-        <f>IF(COUNTIF($D42,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>IF(COUNTIF($D42,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f>IF(COUNTIF($D42,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <f>IF(0=SUM(E42:G42),1,0)</f>
-        <v>1</v>
+        <f>SUBSTITUTE(MID(B42,C42,9999),"/","_")&amp;".html"</f>
+        <v>ArduinoCode_MDO_Theremin.html</v>
       </c>
       <c r="J42" t="str">
-        <f>IF(E42+F42,MID(D42,1+FIND("/",D42),999),IF(G42&gt;0,SUBSTITUTE(SUBSTITUTE(D42,"/README.md",".html"),"/","_"),SUBSTITUTE(D42,"/","_")&amp;".html"))</f>
-        <v>02_PersistenceOfVision.html</v>
+        <f>D42</f>
+        <v>ArduinoCode_MDO_Theremin.html</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision", "02_PersistenceOfVision.html"],</v>
+        <f>"    ["""&amp;B42&amp;""", """&amp;J42&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/MDO_Theremin", "ArduinoCode_MDO_Theremin.html"],</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="10"/>
-        <v>77</v>
+        <f>LEN(B43)</f>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B43)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D43" t="str">
         <f>MID(B43,C43,9999)</f>
-        <v>ArduinoCode/HelloWorld</v>
+        <v>ArduinoCode/VC_DemoReel</v>
       </c>
       <c r="I43" t="s">
         <v>220</v>
       </c>
       <c r="J43" t="str">
         <f>D43</f>
-        <v>ArduinoCode/HelloWorld</v>
+        <v>ArduinoCode/VC_DemoReel</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/HelloWorld", "ArduinoCode/HelloWorld"],</v>
+        <f>"    ["""&amp;B43&amp;""", """&amp;J43&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/VC_DemoReel", "ArduinoCode/VC_DemoReel"],</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <f>LEN(B44)</f>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B44)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D44" t="str">
         <f>MID(B44,C44,9999)</f>
-        <v>03_SonarRangeDetector</v>
+        <v>99_Resources/README.md</v>
       </c>
       <c r="E44">
         <f>IF(COUNTIF($D44,"*.pdf*"),1,0)</f>
@@ -3700,184 +3659,185 @@
       </c>
       <c r="G44">
         <f>IF(COUNTIF($D44,"*.md*"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <f>IF(0=SUM(E44:G44),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="str">
         <f>IF(E44+F44,MID(D44,1+FIND("/",D44),999),IF(G44&gt;0,SUBSTITUTE(SUBSTITUTE(D44,"/README.md",".html"),"/","_"),SUBSTITUTE(D44,"/","_")&amp;".html"))</f>
-        <v>03_SonarRangeDetector.html</v>
+        <v>99_Resources.html</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/03_SonarRangeDetector", "03_SonarRangeDetector.html"],</v>
+        <f>"    ["""&amp;B44&amp;""", """&amp;J44&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/99_Resources/README.md", "99_Resources.html"],</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="10"/>
-        <v>76</v>
+        <f>LEN(B45)</f>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C45" t="s">
-        <v>220</v>
-      </c>
-      <c r="D45" t="s">
-        <v>225</v>
+        <v>166</v>
+      </c>
+      <c r="C45">
+        <f>FIND("master/",B45)+LEN("master")+1</f>
+        <v>56</v>
+      </c>
+      <c r="D45" t="str">
+        <f>MID(B45,C45,9999)</f>
+        <v>02_PersistenceOfVision</v>
+      </c>
+      <c r="E45">
+        <f>IF(COUNTIF($D45,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>IF(COUNTIF($D45,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>IF(COUNTIF($D45,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>IF(0=SUM(E45:G45),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J45" t="str">
-        <f>D45</f>
-        <v>ArduinoCode.html</v>
+        <f>IF(E45+F45,MID(D45,1+FIND("/",D45),999),IF(G45&gt;0,SUBSTITUTE(SUBSTITUTE(D45,"/README.md",".html"),"/","_"),SUBSTITUTE(D45,"/","_")&amp;".html"))</f>
+        <v>02_PersistenceOfVision.html</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/README.md", "ArduinoCode.html"],</v>
+        <f>"    ["""&amp;B45&amp;""", """&amp;J45&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/02_PersistenceOfVision", "02_PersistenceOfVision.html"],</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f>LEN(B46)</f>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:C58" si="12">FIND("master/",B46)+LEN("master")+1</f>
+        <f>FIND("master/",B46)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" ref="D46:D57" si="13">MID(B46,C46,9999)</f>
-        <v>00_InstallArduinoIDE</v>
-      </c>
-      <c r="E46">
-        <f>IF(COUNTIF($D46,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>IF(COUNTIF($D46,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f>IF(COUNTIF($D46,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <f>IF(0=SUM(E46:G46),1,0)</f>
-        <v>1</v>
+        <f>MID(B46,C46,9999)</f>
+        <v>ArduinoCode/HelloWorld</v>
+      </c>
+      <c r="I46" t="s">
+        <v>220</v>
       </c>
       <c r="J46" t="str">
-        <f>IF(E46+F46,MID(D46,1+FIND("/",D46),999),IF(G46&gt;0,SUBSTITUTE(SUBSTITUTE(D46,"/README.md",".html"),"/","_"),SUBSTITUTE(D46,"/","_")&amp;".html"))</f>
-        <v>00_InstallArduinoIDE.html</v>
+        <f>D46</f>
+        <v>ArduinoCode/HelloWorld</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/00_InstallArduinoIDE", "00_InstallArduinoIDE.html"],</v>
+        <f>"    ["""&amp;B46&amp;""", """&amp;J46&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/HelloWorld", "ArduinoCode/HelloWorld"],</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="13"/>
-        <v>ArduinoCode/DemoReel</v>
-      </c>
-      <c r="I47" t="s">
-        <v>220</v>
-      </c>
-      <c r="J47" t="str">
-        <f>D47</f>
-        <v>ArduinoCode/DemoReel</v>
+        <f>LEN(B47)</f>
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>266</v>
+      </c>
+      <c r="J47" t="s">
+        <v>202</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/DemoReel", "ArduinoCode/DemoReel"],</v>
+        <f>"    ["""&amp;B47&amp;""", """&amp;J47&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/blob/master/04_TheFinale/README.md", "04_TheFinale.html"],</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f>LEN(B48)</f>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C48">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B48)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="13"/>
-        <v>ArduinoCode/Sawtooth</v>
-      </c>
-      <c r="I48" t="s">
-        <v>220</v>
+        <f>MID(B48,C48,9999)</f>
+        <v>03_SonarRangeDetector</v>
+      </c>
+      <c r="E48">
+        <f>IF(COUNTIF($D48,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>IF(COUNTIF($D48,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>IF(COUNTIF($D48,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>IF(0=SUM(E48:G48),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J48" t="str">
-        <f>D48</f>
-        <v>ArduinoCode/Sawtooth</v>
+        <f>IF(E48+F48,MID(D48,1+FIND("/",D48),999),IF(G48&gt;0,SUBSTITUTE(SUBSTITUTE(D48,"/README.md",".html"),"/","_"),SUBSTITUTE(D48,"/","_")&amp;".html"))</f>
+        <v>03_SonarRangeDetector.html</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Sawtooth", "ArduinoCode/Sawtooth"],</v>
+        <f>"    ["""&amp;B48&amp;""", """&amp;J48&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/03_SonarRangeDetector", "03_SonarRangeDetector.html"],</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="10"/>
-        <v>75</v>
+        <f>LEN(B49)</f>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="13"/>
-        <v>ArduinoCode/Theremin</v>
-      </c>
-      <c r="I49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
         <v>220</v>
+      </c>
+      <c r="D49" t="s">
+        <v>225</v>
       </c>
       <c r="J49" t="str">
         <f>D49</f>
-        <v>ArduinoCode/Theremin</v>
+        <v>ArduinoCode.html</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Theremin", "ArduinoCode/Theremin"],</v>
+        <f>"    ["""&amp;B49&amp;""", """&amp;J49&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/README.md", "ArduinoCode.html"],</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <f>LEN(B50)</f>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C50">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B50)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="13"/>
-        <v>99_Resources/Sounds</v>
+        <f>MID(B50,C50,9999)</f>
+        <v>00_InstallArduinoIDE</v>
       </c>
       <c r="E50">
         <f>IF(COUNTIF($D50,"*.pdf*"),1,0)</f>
@@ -3897,125 +3857,112 @@
       </c>
       <c r="J50" t="str">
         <f>IF(E50+F50,MID(D50,1+FIND("/",D50),999),IF(G50&gt;0,SUBSTITUTE(SUBSTITUTE(D50,"/README.md",".html"),"/","_"),SUBSTITUTE(D50,"/","_")&amp;".html"))</f>
-        <v>99_Resources_Sounds.html</v>
+        <v>00_InstallArduinoIDE.html</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources/Sounds", "99_Resources_Sounds.html"],</v>
+        <f>"    ["""&amp;B50&amp;""", """&amp;J50&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/00_InstallArduinoIDE", "00_InstallArduinoIDE.html"],</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="10"/>
-        <v>73</v>
+        <f>LEN(B51)</f>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="C51">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B51)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="13"/>
-        <v>99_Resources/KiCad</v>
-      </c>
-      <c r="E51">
-        <f>IF(COUNTIF($D51,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>IF(COUNTIF($D51,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <f>IF(COUNTIF($D51,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <f>IF(0=SUM(E51:G51),1,0)</f>
-        <v>1</v>
+        <f>MID(B51,C51,9999)</f>
+        <v>ArduinoCode/DemoReel</v>
+      </c>
+      <c r="I51" t="s">
+        <v>220</v>
       </c>
       <c r="J51" t="str">
-        <f>IF(E51+F51,MID(D51,1+FIND("/",D51),999),IF(G51&gt;0,SUBSTITUTE(SUBSTITUTE(D51,"/README.md",".html"),"/","_"),SUBSTITUTE(D51,"/","_")&amp;".html"))</f>
-        <v>99_Resources_KiCad.html</v>
+        <f>D51</f>
+        <v>ArduinoCode/DemoReel</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources/KiCad", "99_Resources_KiCad.html"],</v>
+        <f>"    ["""&amp;B51&amp;""", """&amp;J51&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/DemoReel", "ArduinoCode/DemoReel"],</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="10"/>
-        <v>72</v>
+        <f>LEN(B52)</f>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C52">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B52)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="13"/>
-        <v>ArduinoCode/Blink</v>
+        <f>MID(B52,C52,9999)</f>
+        <v>ArduinoCode/Sawtooth</v>
       </c>
       <c r="I52" t="s">
         <v>220</v>
       </c>
       <c r="J52" t="str">
         <f>D52</f>
-        <v>ArduinoCode/Blink</v>
+        <v>ArduinoCode/Sawtooth</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Blink", "ArduinoCode/Blink"],</v>
+        <f>"    ["""&amp;B52&amp;""", """&amp;J52&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Sawtooth", "ArduinoCode/Sawtooth"],</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="10"/>
-        <v>71</v>
+        <f>LEN(B53)</f>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C53">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B53)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="13"/>
-        <v>ArduinoCode/Oval</v>
+        <f>MID(B53,C53,9999)</f>
+        <v>ArduinoCode/Theremin</v>
       </c>
       <c r="I53" t="s">
         <v>220</v>
       </c>
       <c r="J53" t="str">
         <f>D53</f>
-        <v>ArduinoCode/Oval</v>
+        <v>ArduinoCode/Theremin</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Oval", "ArduinoCode/Oval"],</v>
+        <f>"    ["""&amp;B53&amp;""", """&amp;J53&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Theremin", "ArduinoCode/Theremin"],</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="10"/>
-        <v>70</v>
+        <f>LEN(B54)</f>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C54">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B54)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="13"/>
-        <v>05_ThatIsNotAll</v>
+        <f>MID(B54,C54,9999)</f>
+        <v>99_Resources/Sounds</v>
       </c>
       <c r="E54">
         <f>IF(COUNTIF($D54,"*.pdf*"),1,0)</f>
@@ -4035,28 +3982,28 @@
       </c>
       <c r="J54" t="str">
         <f>IF(E54+F54,MID(D54,1+FIND("/",D54),999),IF(G54&gt;0,SUBSTITUTE(SUBSTITUTE(D54,"/README.md",".html"),"/","_"),SUBSTITUTE(D54,"/","_")&amp;".html"))</f>
-        <v>05_ThatIsNotAll.html</v>
+        <v>99_Resources_Sounds.html</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/05_ThatIsNotAll", "05_ThatIsNotAll.html"],</v>
+        <f>"    ["""&amp;B54&amp;""", """&amp;J54&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources/Sounds", "99_Resources_Sounds.html"],</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="10"/>
-        <v>69</v>
+        <f>LEN(B55)</f>
+        <v>73</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C55">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B55)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="13"/>
-        <v>01_BlinkingLED</v>
+        <f>MID(B55,C55,9999)</f>
+        <v>99_Resources/KiCad</v>
       </c>
       <c r="E55">
         <f>IF(COUNTIF($D55,"*.pdf*"),1,0)</f>
@@ -4076,251 +4023,297 @@
       </c>
       <c r="J55" t="str">
         <f>IF(E55+F55,MID(D55,1+FIND("/",D55),999),IF(G55&gt;0,SUBSTITUTE(SUBSTITUTE(D55,"/README.md",".html"),"/","_"),SUBSTITUTE(D55,"/","_")&amp;".html"))</f>
-        <v>01_BlinkingLED.html</v>
+        <v>99_Resources_KiCad.html</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/01_BlinkingLED", "01_BlinkingLED.html"],</v>
+        <f>"    ["""&amp;B55&amp;""", """&amp;J55&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources/KiCad", "99_Resources_KiCad.html"],</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="10"/>
-        <v>67</v>
+        <f>LEN(B56)</f>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C56">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B56)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="13"/>
-        <v>04_TheFinale</v>
-      </c>
-      <c r="E56">
-        <f>IF(COUNTIF($D56,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>IF(COUNTIF($D56,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <f>IF(COUNTIF($D56,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <f>IF(0=SUM(E56:G56),1,0)</f>
-        <v>1</v>
+        <f>MID(B56,C56,9999)</f>
+        <v>ArduinoCode/Blink</v>
+      </c>
+      <c r="I56" t="s">
+        <v>220</v>
       </c>
       <c r="J56" t="str">
-        <f>IF(E56+F56,MID(D56,1+FIND("/",D56),999),IF(G56&gt;0,SUBSTITUTE(SUBSTITUTE(D56,"/README.md",".html"),"/","_"),SUBSTITUTE(D56,"/","_")&amp;".html"))</f>
-        <v>04_TheFinale.html</v>
+        <f>D56</f>
+        <v>ArduinoCode/Blink</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/04_TheFinale", "04_TheFinale.html"],</v>
+        <f>"    ["""&amp;B56&amp;""", """&amp;J56&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Blink", "ArduinoCode/Blink"],</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="10"/>
-        <v>67</v>
+        <f>LEN(B57)</f>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C57">
-        <f t="shared" si="12"/>
+        <f>FIND("master/",B57)+LEN("master")+1</f>
         <v>56</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="13"/>
-        <v>99_Resources</v>
-      </c>
-      <c r="E57">
-        <f>IF(COUNTIF($D57,"*.pdf*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f>IF(COUNTIF($D57,"*.xls*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <f>IF(COUNTIF($D57,"*.md*"),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f>IF(0=SUM(E57:G57),1,0)</f>
-        <v>1</v>
+        <f>MID(B57,C57,9999)</f>
+        <v>ArduinoCode/Oval</v>
+      </c>
+      <c r="I57" t="s">
+        <v>220</v>
       </c>
       <c r="J57" t="str">
-        <f>IF(E57+F57,MID(D57,1+FIND("/",D57),999),IF(G57&gt;0,SUBSTITUTE(SUBSTITUTE(D57,"/README.md",".html"),"/","_"),SUBSTITUTE(D57,"/","_")&amp;".html"))</f>
-        <v>99_Resources.html</v>
+        <f>D57</f>
+        <v>ArduinoCode/Oval</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources", "99_Resources.html"],</v>
+        <f>"    ["""&amp;B57&amp;""", """&amp;J57&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode/Oval", "ArduinoCode/Oval"],</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="10"/>
-        <v>66</v>
+        <f>LEN(B58)</f>
+        <v>70</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="C58">
-        <f t="shared" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="D58" t="s">
-        <v>223</v>
+        <f>FIND("master/",B58)+LEN("master")+1</f>
+        <v>56</v>
+      </c>
+      <c r="D58" t="str">
+        <f>MID(B58,C58,9999)</f>
+        <v>05_ThatIsNotAll</v>
+      </c>
+      <c r="E58">
+        <f>IF(COUNTIF($D58,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>IF(COUNTIF($D58,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>IF(COUNTIF($D58,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>IF(0=SUM(E58:G58),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J58" t="str">
-        <f>D58</f>
-        <v>ArduinoCode</v>
+        <f>IF(E58+F58,MID(D58,1+FIND("/",D58),999),IF(G58&gt;0,SUBSTITUTE(SUBSTITUTE(D58,"/README.md",".html"),"/","_"),SUBSTITUTE(D58,"/","_")&amp;".html"))</f>
+        <v>05_ThatIsNotAll.html</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode", "ArduinoCode"],</v>
+        <f>"    ["""&amp;B58&amp;""", """&amp;J58&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/05_ThatIsNotAll", "05_ThatIsNotAll.html"],</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="10"/>
-        <v>54</v>
+        <f>LEN(B59)</f>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" t="s">
-        <v>221</v>
+        <v>165</v>
+      </c>
+      <c r="C59">
+        <f>FIND("master/",B59)+LEN("master")+1</f>
+        <v>56</v>
+      </c>
+      <c r="D59" t="str">
+        <f>MID(B59,C59,9999)</f>
+        <v>01_BlinkingLED</v>
+      </c>
+      <c r="E59">
+        <f>IF(COUNTIF($D59,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>IF(COUNTIF($D59,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>IF(COUNTIF($D59,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>IF(0=SUM(E59:G59),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" t="str">
+        <f>IF(E59+F59,MID(D59,1+FIND("/",D59),999),IF(G59&gt;0,SUBSTITUTE(SUBSTITUTE(D59,"/README.md",".html"),"/","_"),SUBSTITUTE(D59,"/","_")&amp;".html"))</f>
+        <v>01_BlinkingLED.html</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="11"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master", "_index.html"],</v>
+        <f>"    ["""&amp;B59&amp;""", """&amp;J59&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/01_BlinkingLED", "01_BlinkingLED.html"],</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>LEN(B60)</f>
-        <v>38</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" t="s">
-        <v>248</v>
+        <v>67</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60">
+        <f>FIND("master/",B60)+LEN("master")+1</f>
+        <v>56</v>
+      </c>
+      <c r="D60" t="str">
+        <f>MID(B60,C60,9999)</f>
+        <v>04_TheFinale</v>
+      </c>
+      <c r="E60">
+        <f>IF(COUNTIF($D60,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>IF(COUNTIF($D60,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>IF(COUNTIF($D60,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>IF(0=SUM(E60:G60),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J60" t="str">
-        <f>"YouTube/"&amp;D60</f>
-        <v>YouTube/01_blink_button_2023-04-20.mp4</v>
+        <f>IF(E60+F60,MID(D60,1+FIND("/",D60),999),IF(G60&gt;0,SUBSTITUTE(SUBSTITUTE(D60,"/README.md",".html"),"/","_"),SUBSTITUTE(D60,"/","_")&amp;".html"))</f>
+        <v>04_TheFinale.html</v>
       </c>
       <c r="K60" t="str">
         <f>"    ["""&amp;B60&amp;""", """&amp;J60&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtube.com/shorts/qGxECSMQtAQ", "YouTube/01_blink_button_2023-04-20.mp4"],</v>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/04_TheFinale", "04_TheFinale.html"],</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>LEN(B61)</f>
-        <v>28</v>
-      </c>
-      <c r="B61" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>246</v>
+        <v>67</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61">
+        <f>FIND("master/",B61)+LEN("master")+1</f>
+        <v>56</v>
+      </c>
+      <c r="D61" t="str">
+        <f>MID(B61,C61,9999)</f>
+        <v>99_Resources</v>
+      </c>
+      <c r="E61">
+        <f>IF(COUNTIF($D61,"*.pdf*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>IF(COUNTIF($D61,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>IF(COUNTIF($D61,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>IF(0=SUM(E61:G61),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" ref="J61:J68" si="14">"YouTube/"&amp;D61</f>
-        <v>YouTube/01_blink_extLED_setup_2023-04-28.mp4</v>
+        <f>IF(E61+F61,MID(D61,1+FIND("/",D61),999),IF(G61&gt;0,SUBSTITUTE(SUBSTITUTE(D61,"/README.md",".html"),"/","_"),SUBSTITUTE(D61,"/","_")&amp;".html"))</f>
+        <v>99_Resources.html</v>
       </c>
       <c r="K61" t="str">
         <f>"    ["""&amp;B61&amp;""", """&amp;J61&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/c5UH3J40uWE", "YouTube/01_blink_extLED_setup_2023-04-28.mp4"],</v>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/99_Resources", "99_Resources.html"],</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>LEN(B62)</f>
-        <v>28</v>
-      </c>
-      <c r="B62" t="s">
-        <v>249</v>
-      </c>
-      <c r="C62" t="s">
-        <v>220</v>
+        <v>66</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62">
+        <f>FIND("master/",B62)+LEN("master")+1</f>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/02A_fastled_blink_2023-04-28.mp4</v>
+        <f>D62</f>
+        <v>ArduinoCode</v>
       </c>
       <c r="K62" t="str">
         <f>"    ["""&amp;B62&amp;""", """&amp;J62&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/cnjk-xBvyEo", "YouTube/02A_fastled_blink_2023-04-28.mp4"],</v>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master/ArduinoCode", "ArduinoCode"],</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>LEN(B63)</f>
-        <v>28</v>
-      </c>
-      <c r="B63" t="s">
-        <v>251</v>
+        <v>54</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C63" t="s">
         <v>220</v>
       </c>
-      <c r="D63" t="s">
-        <v>252</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/02B_sawtooth_2023-04-20.mp4</v>
+      <c r="J63" t="s">
+        <v>221</v>
       </c>
       <c r="K63" t="str">
         <f>"    ["""&amp;B63&amp;""", """&amp;J63&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/UdA5ehl802k", "YouTube/02B_sawtooth_2023-04-20.mp4"],</v>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/ArduinoClass/tree/master", "_index.html"],</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>LEN(B64)</f>
-        <v>28</v>
-      </c>
-      <c r="B64" t="s">
-        <v>253</v>
+        <v>38</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="C64" t="s">
         <v>220</v>
       </c>
       <c r="D64" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/02C_oval_button_2023-04-29.mp4</v>
+        <f>"YouTube/"&amp;D64</f>
+        <v>YouTube/01_blink_button_2023-04-20.mp4</v>
       </c>
       <c r="K64" t="str">
         <f>"    ["""&amp;B64&amp;""", """&amp;J64&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/I-3vgafNRE8", "YouTube/02C_oval_button_2023-04-29.mp4"],</v>
+        <v xml:space="preserve">    ["https://youtube.com/shorts/qGxECSMQtAQ", "YouTube/01_blink_button_2023-04-20.mp4"],</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4329,21 +4322,21 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
         <v>220</v>
       </c>
       <c r="D65" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/02D_sinelon_2023-04-29.mp4</v>
+        <f>"YouTube/"&amp;D65</f>
+        <v>YouTube/01_blink_extLED_setup_2023-04-28.mp4</v>
       </c>
       <c r="K65" t="str">
         <f>"    ["""&amp;B65&amp;""", """&amp;J65&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/sXV3qn8dh8o", "YouTube/02D_sinelon_2023-04-29.mp4"],</v>
+        <v xml:space="preserve">    ["https://youtu.be/c5UH3J40uWE", "YouTube/01_blink_extLED_setup_2023-04-28.mp4"],</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4352,21 +4345,21 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
         <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/03_Theremin_final_2023-04-29.mp4</v>
+        <f>"YouTube/"&amp;D66</f>
+        <v>YouTube/02A_fastled_blink_2023-04-28.mp4</v>
       </c>
       <c r="K66" t="str">
         <f>"    ["""&amp;B66&amp;""", """&amp;J66&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/0KehSIJmKcs", "YouTube/03_Theremin_final_2023-04-29.mp4"],</v>
+        <v xml:space="preserve">    ["https://youtu.be/cnjk-xBvyEo", "YouTube/02A_fastled_blink_2023-04-28.mp4"],</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4375,21 +4368,21 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
         <v>220</v>
       </c>
       <c r="D67" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/04_ThereminSound_final_2023-04-29.mp4</v>
+        <f>"YouTube/"&amp;D67</f>
+        <v>YouTube/02B_sawtooth_2023-04-20.mp4</v>
       </c>
       <c r="K67" t="str">
         <f>"    ["""&amp;B67&amp;""", """&amp;J67&amp;"""],"</f>
-        <v xml:space="preserve">    ["https://youtu.be/G7ARC0xHXRg", "YouTube/04_ThereminSound_final_2023-04-29.mp4"],</v>
+        <v xml:space="preserve">    ["https://youtu.be/UdA5ehl802k", "YouTube/02B_sawtooth_2023-04-20.mp4"],</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4398,149 +4391,241 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C68" t="s">
         <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="14"/>
-        <v>YouTube/04_VoiceCommands_and_VC_DemoReel_02.mp4</v>
+        <f>"YouTube/"&amp;D68</f>
+        <v>YouTube/02C_oval_button_2023-04-29.mp4</v>
       </c>
       <c r="K68" t="str">
         <f>"    ["""&amp;B68&amp;""", """&amp;J68&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/I-3vgafNRE8", "YouTube/02C_oval_button_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>LEN(B69)</f>
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>255</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" t="str">
+        <f>"YouTube/"&amp;D69</f>
+        <v>YouTube/02D_sinelon_2023-04-29.mp4</v>
+      </c>
+      <c r="K69" t="str">
+        <f>"    ["""&amp;B69&amp;""", """&amp;J69&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/sXV3qn8dh8o", "YouTube/02D_sinelon_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>LEN(B70)</f>
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="J70" t="str">
+        <f>"YouTube/"&amp;D70</f>
+        <v>YouTube/03_Theremin_final_2023-04-29.mp4</v>
+      </c>
+      <c r="K70" t="str">
+        <f>"    ["""&amp;B70&amp;""", """&amp;J70&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/0KehSIJmKcs", "YouTube/03_Theremin_final_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>LEN(B71)</f>
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="J71" t="str">
+        <f>"YouTube/"&amp;D71</f>
+        <v>YouTube/04_ThereminSound_final_2023-04-29.mp4</v>
+      </c>
+      <c r="K71" t="str">
+        <f>"    ["""&amp;B71&amp;""", """&amp;J71&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://youtu.be/G7ARC0xHXRg", "YouTube/04_ThereminSound_final_2023-04-29.mp4"],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>LEN(B72)</f>
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" t="str">
+        <f>"YouTube/"&amp;D72</f>
+        <v>YouTube/04_VoiceCommands_and_VC_DemoReel_02.mp4</v>
+      </c>
+      <c r="K72" t="str">
+        <f>"    ["""&amp;B72&amp;""", """&amp;J72&amp;"""],"</f>
         <v xml:space="preserve">    ["https://youtu.be/M8Xc4aVh5Hc", "YouTube/04_VoiceCommands_and_VC_DemoReel_02.mp4"],</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" t="s">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" t="s">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" t="s">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" t="s">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J92" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J95" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J96" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J105" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J106" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K59" xr:uid="{9C540BD1-6218-4126-83E7-AFCE5D23BAAF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:K68">
-    <sortCondition descending="1" ref="A60:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K72">
+    <sortCondition descending="1" ref="A2:A72"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" xr:uid="{EB67CE3E-1E20-49CF-B57E-A0AF5AE40E6E}"/>
-    <hyperlink ref="B58" r:id="rId2" xr:uid="{8B47E7AD-D542-4FFF-AE7B-26337C515F0D}"/>
-    <hyperlink ref="B45" r:id="rId3" xr:uid="{41D65414-9954-4D0F-A9F3-817162AA9DDA}"/>
-    <hyperlink ref="B60" r:id="rId4" xr:uid="{39FA7108-7901-4714-B768-69CEFE730CB4}"/>
+    <hyperlink ref="B54" r:id="rId1" xr:uid="{EB67CE3E-1E20-49CF-B57E-A0AF5AE40E6E}"/>
+    <hyperlink ref="B62" r:id="rId2" xr:uid="{8B47E7AD-D542-4FFF-AE7B-26337C515F0D}"/>
+    <hyperlink ref="B49" r:id="rId3" xr:uid="{41D65414-9954-4D0F-A9F3-817162AA9DDA}"/>
+    <hyperlink ref="B64" r:id="rId4" xr:uid="{39FA7108-7901-4714-B768-69CEFE730CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -4551,8 +4636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBCAD21-0F7B-4758-92D6-6CB5F17FACC1}">
   <dimension ref="A2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/99_Resources/python/XlateURLsForStandAlone.xlsx
+++ b/99_Resources/python/XlateURLsForStandAlone.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5CC958-ACDE-4BC0-84D3-92FB6ED6DF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D9AB62-0268-488F-AC0D-DB2B7566B4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="6210" windowWidth="24825" windowHeight="12255" activeTab="3" xr2:uid="{8ED520A1-9624-40EB-A0BD-451A4B57B1C7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="313">
   <si>
     <t>2021-10-07_Library_from_googleusercontent.com.jpg</t>
   </si>
@@ -954,6 +954,18 @@
   </si>
   <si>
     <t>PDF/PNG/JPG</t>
+  </si>
+  <si>
+    <t>https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/01_Blink/01_Blink.ino</t>
+  </si>
+  <si>
+    <t>ArduinoCode/01_Blink/01_Blink.ino</t>
+  </si>
+  <si>
+    <t>ArduinoCode/02_LetsGetTalking/02_LetsGetTalking.ino</t>
+  </si>
+  <si>
+    <t>ArduinoCode/03_YakityYak/03_YakityYak.ino</t>
   </si>
 </sst>
 </file>
@@ -1038,12 +1050,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4916,10 +4931,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552D0541-A209-4C66-8ADB-AB8FD7A1A45E}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4996,7 +5011,7 @@
         <f>IF(0=SUM(E3:G3),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" s="6" t="str">
         <f>IF(E3+F3,MID(D3,1+FIND("/",D3),999),IF(G3&gt;0,SUBSTITUTE(SUBSTITUTE(D3,"/README.md",".html"),"/","_"),SUBSTITUTE(D3,"/","_")&amp;".html"))</f>
         <v>Images/Arduino-Nano-Pinout_from_circuitstoday.com.png</v>
       </c>
@@ -5037,12 +5052,12 @@
         <f>IF(0=SUM(E4:G4),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="6" t="str">
         <f>IF(E4+F4,MID(D4,1+FIND("/",D4),999),IF(G4&gt;0,SUBSTITUTE(SUBSTITUTE(D4,"/README.md",".html"),"/","_"),SUBSTITUTE(D4,"/","_")&amp;".html"))</f>
         <v>02_LetsGetTalking.html#ascii-characters-and-strings</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K39" si="0">"    ["""&amp;B4&amp;""", """&amp;J4&amp;"""],"</f>
+        <f>"    ["""&amp;B4&amp;""", """&amp;J4&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/02_LetsGetTalking/README.md#ascii-characters-and-strings", "02_LetsGetTalking.html#ascii-characters-and-strings"],</v>
       </c>
     </row>
@@ -5055,35 +5070,35 @@
         <v>273</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C39" si="1">FIND("master/",B5)+LEN("master")+1</f>
+        <f>FIND("master/",B5)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D39" si="2">MID(B5,C5,9999)</f>
+        <f>MID(B5,C5,9999)</f>
         <v>99_Resources/Images/Config_USB_SerialMonitor_screen.png</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E39" si="3">COUNTIF($D5,"*.png*")+COUNTIF($D5,"*.jpg*")+COUNTIF($D5,"*.pdf*")</f>
+        <f>COUNTIF($D5,"*.png*")+COUNTIF($D5,"*.jpg*")+COUNTIF($D5,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F39" si="4">IF(COUNTIF($D5,"*.xls*"),1,0)</f>
+        <f>IF(COUNTIF($D5,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G39" si="5">IF(COUNTIF($D5,"*.md*"),1,0)</f>
+        <f>IF(COUNTIF($D5,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H39" si="6">IF(0=SUM(E5:G5),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J39" si="7">IF(E5+F5,MID(D5,1+FIND("/",D5),999),IF(G5&gt;0,SUBSTITUTE(SUBSTITUTE(D5,"/README.md",".html"),"/","_"),SUBSTITUTE(D5,"/","_")&amp;".html"))</f>
+        <f>IF(0=SUM(E5:G5),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>IF(E5+F5,MID(D5,1+FIND("/",D5),999),IF(G5&gt;0,SUBSTITUTE(SUBSTITUTE(D5,"/README.md",".html"),"/","_"),SUBSTITUTE(D5,"/","_")&amp;".html"))</f>
         <v>Images/Config_USB_SerialMonitor_screen.png</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B5&amp;""", """&amp;J5&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/Config_USB_SerialMonitor_screen.png", "Images/Config_USB_SerialMonitor_screen.png"],</v>
       </c>
     </row>
@@ -5096,35 +5111,35 @@
         <v>274</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B6)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B6,C6,9999)</f>
         <v>99_Resources/Images/03_SerMon_DO_DEBUG_INPUT_run.png</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D6,"*.png*")+COUNTIF($D6,"*.jpg*")+COUNTIF($D6,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D6,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D6,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(0=SUM(E6:G6),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>IF(E6+F6,MID(D6,1+FIND("/",D6),999),IF(G6&gt;0,SUBSTITUTE(SUBSTITUTE(D6,"/README.md",".html"),"/","_"),SUBSTITUTE(D6,"/","_")&amp;".html"))</f>
         <v>Images/03_SerMon_DO_DEBUG_INPUT_run.png</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B6&amp;""", """&amp;J6&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/03_SerMon_DO_DEBUG_INPUT_run.png", "Images/03_SerMon_DO_DEBUG_INPUT_run.png"],</v>
       </c>
     </row>
@@ -5137,35 +5152,35 @@
         <v>275</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B7)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B7,C7,9999)</f>
         <v>99_Resources/Images/01_BlinkingLED_part_A_setup.png</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D7,"*.png*")+COUNTIF($D7,"*.jpg*")+COUNTIF($D7,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D7,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D7,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(0=SUM(E7:G7),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>IF(E7+F7,MID(D7,1+FIND("/",D7),999),IF(G7&gt;0,SUBSTITUTE(SUBSTITUTE(D7,"/README.md",".html"),"/","_"),SUBSTITUTE(D7,"/","_")&amp;".html"))</f>
         <v>Images/01_BlinkingLED_part_A_setup.png</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B7&amp;""", """&amp;J7&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/01_BlinkingLED_part_A_setup.png", "Images/01_BlinkingLED_part_A_setup.png"],</v>
       </c>
     </row>
@@ -5174,40 +5189,15 @@
         <f>LEN(B8)</f>
         <v>110</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>276</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/02_LetsGetTalking/02_LetsGetTalking.ino</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_02_LetsGetTalking_02_LetsGetTalking.ino.html</v>
+      <c r="J8" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/02_LetsGetTalking/02_LetsGetTalking.ino", "ArduinoCode_02_LetsGetTalking_02_LetsGetTalking.ino.html"],</v>
+        <f>"    ["""&amp;B8&amp;""", """&amp;J8&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/02_LetsGetTalking/02_LetsGetTalking.ino", "ArduinoCode/02_LetsGetTalking/02_LetsGetTalking.ino"],</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5219,35 +5209,35 @@
         <v>277</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B9)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B9,C9,9999)</f>
         <v>99_Resources/Images/Config_USB_SerialMonitor.png</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D9,"*.png*")+COUNTIF($D9,"*.jpg*")+COUNTIF($D9,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D9,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D9,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E9:G9),1,0)</f>
         <v>0</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E9+F9,MID(D9,1+FIND("/",D9),999),IF(G9&gt;0,SUBSTITUTE(SUBSTITUTE(D9,"/README.md",".html"),"/","_"),SUBSTITUTE(D9,"/","_")&amp;".html"))</f>
         <v>Images/Config_USB_SerialMonitor.png</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B9&amp;""", """&amp;J9&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/Config_USB_SerialMonitor.png", "Images/Config_USB_SerialMonitor.png"],</v>
       </c>
     </row>
@@ -5260,35 +5250,35 @@
         <v>278</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B10)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B10,C10,9999)</f>
         <v>99_Resources/Images/03_SerMon_DO_DEBUG_run.png</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D10,"*.png*")+COUNTIF($D10,"*.jpg*")+COUNTIF($D10,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D10,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D10,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E10:G10),1,0)</f>
         <v>0</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E10+F10,MID(D10,1+FIND("/",D10),999),IF(G10&gt;0,SUBSTITUTE(SUBSTITUTE(D10,"/README.md",".html"),"/","_"),SUBSTITUTE(D10,"/","_")&amp;".html"))</f>
         <v>Images/03_SerMon_DO_DEBUG_run.png</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B10&amp;""", """&amp;J10&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/03_SerMon_DO_DEBUG_run.png", "Images/03_SerMon_DO_DEBUG_run.png"],</v>
       </c>
     </row>
@@ -5301,35 +5291,35 @@
         <v>279</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B11)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B11,C11,9999)</f>
         <v>99_Resources/Images/02_SerMon_setup_only.png</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D11,"*.png*")+COUNTIF($D11,"*.jpg*")+COUNTIF($D11,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D11,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D11,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E11:G11),1,0)</f>
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E11+F11,MID(D11,1+FIND("/",D11),999),IF(G11&gt;0,SUBSTITUTE(SUBSTITUTE(D11,"/README.md",".html"),"/","_"),SUBSTITUTE(D11,"/","_")&amp;".html"))</f>
         <v>Images/02_SerMon_setup_only.png</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B11&amp;""", """&amp;J11&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/02_SerMon_setup_only.png", "Images/02_SerMon_setup_only.png"],</v>
       </c>
     </row>
@@ -5342,35 +5332,35 @@
         <v>280</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B12)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B12,C12,9999)</f>
         <v>99_Resources/Images/IDE_CompileAndRun.png</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D12,"*.png*")+COUNTIF($D12,"*.jpg*")+COUNTIF($D12,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D12,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D12,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E12:G12),1,0)</f>
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E12+F12,MID(D12,1+FIND("/",D12),999),IF(G12&gt;0,SUBSTITUTE(SUBSTITUTE(D12,"/README.md",".html"),"/","_"),SUBSTITUTE(D12,"/","_")&amp;".html"))</f>
         <v>Images/IDE_CompileAndRun.png</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B12&amp;""", """&amp;J12&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/IDE_CompileAndRun.png", "Images/IDE_CompileAndRun.png"],</v>
       </c>
     </row>
@@ -5379,40 +5369,15 @@
         <f>LEN(B13)</f>
         <v>100</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>281</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/03_YakityYak/03_YakityYak.ino</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J13" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_03_YakityYak_03_YakityYak.ino.html</v>
+      <c r="J13" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/03_YakityYak/03_YakityYak.ino", "ArduinoCode_03_YakityYak_03_YakityYak.ino.html"],</v>
+        <f>"    ["""&amp;B13&amp;""", """&amp;J13&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/03_YakityYak/03_YakityYak.ino", "ArduinoCode/03_YakityYak/03_YakityYak.ino"],</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5424,35 +5389,35 @@
         <v>282</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B14)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B14,C14,9999)</f>
         <v>ArduinoCode/02_LetsGetTalking/README.md</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D14,"*.png*")+COUNTIF($D14,"*.jpg*")+COUNTIF($D14,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D14,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D14,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E14:G14),1,0)</f>
         <v>0</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E14+F14,MID(D14,1+FIND("/",D14),999),IF(G14&gt;0,SUBSTITUTE(SUBSTITUTE(D14,"/README.md",".html"),"/","_"),SUBSTITUTE(D14,"/","_")&amp;".html"))</f>
         <v>ArduinoCode_02_LetsGetTalking.html</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B14&amp;""", """&amp;J14&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/02_LetsGetTalking/README.md", "ArduinoCode_02_LetsGetTalking.html"],</v>
       </c>
     </row>
@@ -5465,35 +5430,35 @@
         <v>283</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B15)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B15,C15,9999)</f>
         <v>ArduinoCode/02_LetsGetTalking/README.md</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D15,"*.png*")+COUNTIF($D15,"*.jpg*")+COUNTIF($D15,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D15,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D15,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E15:G15),1,0)</f>
         <v>0</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E15+F15,MID(D15,1+FIND("/",D15),999),IF(G15&gt;0,SUBSTITUTE(SUBSTITUTE(D15,"/README.md",".html"),"/","_"),SUBSTITUTE(D15,"/","_")&amp;".html"))</f>
         <v>ArduinoCode_02_LetsGetTalking.html</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B15&amp;""", """&amp;J15&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/02_LetsGetTalking/README.md", "ArduinoCode_02_LetsGetTalking.html"],</v>
       </c>
     </row>
@@ -5506,35 +5471,35 @@
         <v>284</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B16)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B16,C16,9999)</f>
         <v>99_Resources/Images/02_SerMon_run.png</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D16,"*.png*")+COUNTIF($D16,"*.jpg*")+COUNTIF($D16,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D16,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D16,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E16:G16),1,0)</f>
         <v>0</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E16+F16,MID(D16,1+FIND("/",D16),999),IF(G16&gt;0,SUBSTITUTE(SUBSTITUTE(D16,"/README.md",".html"),"/","_"),SUBSTITUTE(D16,"/","_")&amp;".html"))</f>
         <v>Images/02_SerMon_run.png</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B16&amp;""", """&amp;J16&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/02_SerMon_run.png", "Images/02_SerMon_run.png"],</v>
       </c>
     </row>
@@ -5547,35 +5512,35 @@
         <v>285</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B17)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B17,C17,9999)</f>
         <v>99_Resources/Images/03_SerMon_run.png</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D17,"*.png*")+COUNTIF($D17,"*.jpg*")+COUNTIF($D17,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D17,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D17,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E17:G17),1,0)</f>
         <v>0</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E17+F17,MID(D17,1+FIND("/",D17),999),IF(G17&gt;0,SUBSTITUTE(SUBSTITUTE(D17,"/README.md",".html"),"/","_"),SUBSTITUTE(D17,"/","_")&amp;".html"))</f>
         <v>Images/03_SerMon_run.png</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B17&amp;""", """&amp;J17&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/03_SerMon_run.png", "Images/03_SerMon_run.png"],</v>
       </c>
     </row>
@@ -5588,35 +5553,35 @@
         <v>286</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B18)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B18,C18,9999)</f>
         <v>99_Resources/Images/IDE_LoadBlink.png</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D18,"*.png*")+COUNTIF($D18,"*.jpg*")+COUNTIF($D18,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D18,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D18,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E18:G18),1,0)</f>
         <v>0</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E18+F18,MID(D18,1+FIND("/",D18),999),IF(G18&gt;0,SUBSTITUTE(SUBSTITUTE(D18,"/README.md",".html"),"/","_"),SUBSTITUTE(D18,"/","_")&amp;".html"))</f>
         <v>Images/IDE_LoadBlink.png</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B18&amp;""", """&amp;J18&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/IDE_LoadBlink.png", "Images/IDE_LoadBlink.png"],</v>
       </c>
     </row>
@@ -5629,35 +5594,35 @@
         <v>287</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B19)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B19,C19,9999)</f>
         <v>README.md#some-resources-on-the-web</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D19,"*.png*")+COUNTIF($D19,"*.jpg*")+COUNTIF($D19,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D19,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D19,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E19:G19),1,0)</f>
         <v>0</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E19+F19,MID(D19,1+FIND("/",D19),999),IF(G19&gt;0,SUBSTITUTE(SUBSTITUTE(D19,"/README.md",".html"),"/","_"),SUBSTITUTE(D19,"/","_")&amp;".html"))</f>
         <v>README.md#some-resources-on-the-web</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B19&amp;""", """&amp;J19&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/README.md#some-resources-on-the-web", "README.md#some-resources-on-the-web"],</v>
       </c>
     </row>
@@ -5670,35 +5635,35 @@
         <v>288</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B20)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B20,C20,9999)</f>
         <v>ArduinoCode/03_YakityYak/README.md</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D20,"*.png*")+COUNTIF($D20,"*.jpg*")+COUNTIF($D20,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D20,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D20,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E20:G20),1,0)</f>
         <v>0</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E20+F20,MID(D20,1+FIND("/",D20),999),IF(G20&gt;0,SUBSTITUTE(SUBSTITUTE(D20,"/README.md",".html"),"/","_"),SUBSTITUTE(D20,"/","_")&amp;".html"))</f>
         <v>ArduinoCode_03_YakityYak.html</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B20&amp;""", """&amp;J20&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/03_YakityYak/README.md", "ArduinoCode_03_YakityYak.html"],</v>
       </c>
     </row>
@@ -5711,35 +5676,35 @@
         <v>289</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B21)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B21,C21,9999)</f>
         <v>99_Resources/Images/ConfigUSB.png</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D21,"*.png*")+COUNTIF($D21,"*.jpg*")+COUNTIF($D21,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D21,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D21,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E21:G21),1,0)</f>
         <v>0</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E21+F21,MID(D21,1+FIND("/",D21),999),IF(G21&gt;0,SUBSTITUTE(SUBSTITUTE(D21,"/README.md",".html"),"/","_"),SUBSTITUTE(D21,"/","_")&amp;".html"))</f>
         <v>Images/ConfigUSB.png</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B21&amp;""", """&amp;J21&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/ConfigUSB.png", "Images/ConfigUSB.png"],</v>
       </c>
     </row>
@@ -5752,35 +5717,35 @@
         <v>290</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B22)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B22,C22,9999)</f>
         <v>99_Resources/Images/IDE_Blink.png</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D22,"*.png*")+COUNTIF($D22,"*.jpg*")+COUNTIF($D22,"*.pdf*")</f>
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D22,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D22,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E22:G22),1,0)</f>
         <v>0</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E22+F22,MID(D22,1+FIND("/",D22),999),IF(G22&gt;0,SUBSTITUTE(SUBSTITUTE(D22,"/README.md",".html"),"/","_"),SUBSTITUTE(D22,"/","_")&amp;".html"))</f>
         <v>Images/IDE_Blink.png</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B22&amp;""", """&amp;J22&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/99_Resources/Images/IDE_Blink.png", "Images/IDE_Blink.png"],</v>
       </c>
     </row>
@@ -5793,118 +5758,93 @@
         <v>291</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B23)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B23,C23,9999)</f>
         <v>ArduinoCode/03_YakityYak/README.md</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D23,"*.png*")+COUNTIF($D23,"*.jpg*")+COUNTIF($D23,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D23,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D23,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E23:G23),1,0)</f>
         <v>0</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(E23+F23,MID(D23,1+FIND("/",D23),999),IF(G23&gt;0,SUBSTITUTE(SUBSTITUTE(D23,"/README.md",".html"),"/","_"),SUBSTITUTE(D23,"/","_")&amp;".html"))</f>
         <v>ArduinoCode_03_YakityYak.html</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="0"/>
+        <f>"    ["""&amp;B23&amp;""", """&amp;J23&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/03_YakityYak/README.md", "ArduinoCode_03_YakityYak.html"],</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>LEN(B24)</f>
-        <v>89</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/01_Blink/README.md</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J24" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_01_Blink.html</v>
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/01_Blink/README.md", "ArduinoCode_01_Blink.html"],</v>
+        <f>"    ["""&amp;B24&amp;""", """&amp;J24&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/01_Blink/01_Blink.ino", "ArduinoCode/01_Blink/01_Blink.ino"],</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>LEN(B25)</f>
-        <v>88</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>293</v>
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>FIND("master/",B25)+LEN("master")+1</f>
+        <v>60</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="2"/>
-        <v>00_InstallArduinoIDE/README.md</v>
+        <f>MID(B25,C25,9999)</f>
+        <v>ArduinoCode/01_Blink/README.md</v>
       </c>
       <c r="E25">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D25,"*.png*")+COUNTIF($D25,"*.jpg*")+COUNTIF($D25,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D25,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D25,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E25:G25),1,0)</f>
         <v>0</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="7"/>
-        <v>00_InstallArduinoIDE.html</v>
+        <f>IF(E25+F25,MID(D25,1+FIND("/",D25),999),IF(G25&gt;0,SUBSTITUTE(SUBSTITUTE(D25,"/README.md",".html"),"/","_"),SUBSTITUTE(D25,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_01_Blink.html</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/00_InstallArduinoIDE/README.md", "00_InstallArduinoIDE.html"],</v>
+        <f>"    ["""&amp;B25&amp;""", """&amp;J25&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/ArduinoCode/01_Blink/README.md", "ArduinoCode_01_Blink.html"],</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -5913,203 +5853,203 @@
         <v>88</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B26)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/01_Blink/README.md</v>
+        <f>MID(B26,C26,9999)</f>
+        <v>00_InstallArduinoIDE/README.md</v>
       </c>
       <c r="E26">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D26,"*.png*")+COUNTIF($D26,"*.jpg*")+COUNTIF($D26,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D26,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G26">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D26,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E26:G26),1,0)</f>
         <v>0</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode_01_Blink.html</v>
+        <f>IF(E26+F26,MID(D26,1+FIND("/",D26),999),IF(G26&gt;0,SUBSTITUTE(SUBSTITUTE(D26,"/README.md",".html"),"/","_"),SUBSTITUTE(D26,"/","_")&amp;".html"))</f>
+        <v>00_InstallArduinoIDE.html</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/01_Blink/README.md", "ArduinoCode_01_Blink.html"],</v>
+        <f>"    ["""&amp;B26&amp;""", """&amp;J26&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/00_InstallArduinoIDE/README.md", "00_InstallArduinoIDE.html"],</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>LEN(B27)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B27)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="2"/>
-        <v>02_LetsGetTalking/README.md</v>
+        <f>MID(B27,C27,9999)</f>
+        <v>ArduinoCode/01_Blink/README.md</v>
       </c>
       <c r="E27">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D27,"*.png*")+COUNTIF($D27,"*.jpg*")+COUNTIF($D27,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D27,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D27,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E27:G27),1,0)</f>
         <v>0</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="7"/>
-        <v>02_LetsGetTalking.html</v>
+        <f>IF(E27+F27,MID(D27,1+FIND("/",D27),999),IF(G27&gt;0,SUBSTITUTE(SUBSTITUTE(D27,"/README.md",".html"),"/","_"),SUBSTITUTE(D27,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode_01_Blink.html</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/02_LetsGetTalking/README.md", "02_LetsGetTalking.html"],</v>
+        <f>"    ["""&amp;B27&amp;""", """&amp;J27&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/01_Blink/README.md", "ArduinoCode_01_Blink.html"],</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>LEN(B28)</f>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B28)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="2"/>
-        <v>01_BlinkingLED/README.md</v>
+        <f>MID(B28,C28,9999)</f>
+        <v>02_LetsGetTalking/README.md</v>
       </c>
       <c r="E28">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D28,"*.png*")+COUNTIF($D28,"*.jpg*")+COUNTIF($D28,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D28,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D28,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E28:G28),1,0)</f>
         <v>0</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="7"/>
-        <v>01_BlinkingLED.html</v>
+        <f>IF(E28+F28,MID(D28,1+FIND("/",D28),999),IF(G28&gt;0,SUBSTITUTE(SUBSTITUTE(D28,"/README.md",".html"),"/","_"),SUBSTITUTE(D28,"/","_")&amp;".html"))</f>
+        <v>02_LetsGetTalking.html</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/01_BlinkingLED/README.md", "01_BlinkingLED.html"],</v>
+        <f>"    ["""&amp;B28&amp;""", """&amp;J28&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/02_LetsGetTalking/README.md", "02_LetsGetTalking.html"],</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>LEN(B29)</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B29)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="2"/>
-        <v>03_YakityYak/README.md</v>
+        <f>MID(B29,C29,9999)</f>
+        <v>01_BlinkingLED/README.md</v>
       </c>
       <c r="E29">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D29,"*.png*")+COUNTIF($D29,"*.jpg*")+COUNTIF($D29,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D29,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D29,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E29:G29),1,0)</f>
         <v>0</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="7"/>
-        <v>03_YakityYak.html</v>
+        <f>IF(E29+F29,MID(D29,1+FIND("/",D29),999),IF(G29&gt;0,SUBSTITUTE(SUBSTITUTE(D29,"/README.md",".html"),"/","_"),SUBSTITUTE(D29,"/","_")&amp;".html"))</f>
+        <v>01_BlinkingLED.html</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/03_YakityYak/README.md", "03_YakityYak.html"],</v>
+        <f>"    ["""&amp;B29&amp;""", """&amp;J29&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/01_BlinkingLED/README.md", "01_BlinkingLED.html"],</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>LEN(B30)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B30)+LEN("master")+1</f>
         <v>59</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode/README.md</v>
+        <f>MID(B30,C30,9999)</f>
+        <v>03_YakityYak/README.md</v>
       </c>
       <c r="E30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D30,"*.png*")+COUNTIF($D30,"*.jpg*")+COUNTIF($D30,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D30,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D30,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E30:G30),1,0)</f>
         <v>0</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode.html</v>
+        <f>IF(E30+F30,MID(D30,1+FIND("/",D30),999),IF(G30&gt;0,SUBSTITUTE(SUBSTITUTE(D30,"/README.md",".html"),"/","_"),SUBSTITUTE(D30,"/","_")&amp;".html"))</f>
+        <v>03_YakityYak.html</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/README.md", "ArduinoCode.html"],</v>
+        <f>"    ["""&amp;B30&amp;""", """&amp;J30&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/03_YakityYak/README.md", "03_YakityYak.html"],</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -6118,371 +6058,416 @@
         <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>FIND("master/",B31)+LEN("master")+1</f>
+        <v>59</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="2"/>
-        <v>00_InstallArduinoIDE</v>
+        <f>MID(B31,C31,9999)</f>
+        <v>ArduinoCode/README.md</v>
       </c>
       <c r="E31">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D31,"*.png*")+COUNTIF($D31,"*.jpg*")+COUNTIF($D31,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D31,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(COUNTIF($D31,"*.md*"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="H31">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f>IF(0=SUM(E31:G31),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="7"/>
-        <v>00_InstallArduinoIDE.html</v>
+        <f>IF(E31+F31,MID(D31,1+FIND("/",D31),999),IF(G31&gt;0,SUBSTITUTE(SUBSTITUTE(D31,"/README.md",".html"),"/","_"),SUBSTITUTE(D31,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode.html</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/00_InstallArduinoIDE", "00_InstallArduinoIDE.html"],</v>
+        <f>"    ["""&amp;B31&amp;""", """&amp;J31&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/ArduinoCode/README.md", "ArduinoCode.html"],</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>LEN(B32)</f>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B32)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="2"/>
-        <v>02_LetsGetTalking</v>
+        <f>MID(B32,C32,9999)</f>
+        <v>00_InstallArduinoIDE</v>
       </c>
       <c r="E32">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D32,"*.png*")+COUNTIF($D32,"*.jpg*")+COUNTIF($D32,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D32,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D32,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E32:G32),1,0)</f>
         <v>1</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="7"/>
-        <v>02_LetsGetTalking.html</v>
+        <f>IF(E32+F32,MID(D32,1+FIND("/",D32),999),IF(G32&gt;0,SUBSTITUTE(SUBSTITUTE(D32,"/README.md",".html"),"/","_"),SUBSTITUTE(D32,"/","_")&amp;".html"))</f>
+        <v>00_InstallArduinoIDE.html</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/02_LetsGetTalking", "02_LetsGetTalking.html"],</v>
+        <f>"    ["""&amp;B32&amp;""", """&amp;J32&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/00_InstallArduinoIDE", "00_InstallArduinoIDE.html"],</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>LEN(B33)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B33)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="2"/>
-        <v>01_BlinkingLED</v>
+        <f>MID(B33,C33,9999)</f>
+        <v>02_LetsGetTalking</v>
       </c>
       <c r="E33">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D33,"*.png*")+COUNTIF($D33,"*.jpg*")+COUNTIF($D33,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D33,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D33,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f>IF(0=SUM(E33:G33),1,0)</f>
         <v>1</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="7"/>
-        <v>01_BlinkingLED.html</v>
+        <f>IF(E33+F33,MID(D33,1+FIND("/",D33),999),IF(G33&gt;0,SUBSTITUTE(SUBSTITUTE(D33,"/README.md",".html"),"/","_"),SUBSTITUTE(D33,"/","_")&amp;".html"))</f>
+        <v>02_LetsGetTalking.html</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/01_BlinkingLED", "01_BlinkingLED.html"],</v>
+        <f>"    ["""&amp;B33&amp;""", """&amp;J33&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/02_LetsGetTalking", "02_LetsGetTalking.html"],</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>LEN(B34)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B34)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="2"/>
-        <v>03_YakityYak</v>
+        <f>MID(B34,C34,9999)</f>
+        <v>01_BlinkingLED</v>
       </c>
       <c r="E34">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D34,"*.png*")+COUNTIF($D34,"*.jpg*")+COUNTIF($D34,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D34,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D34,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H34">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="7"/>
-        <v>03_YakityYak.html</v>
+        <f>IF(0=SUM(E34:G34),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="5" t="str">
+        <f>IF(E34+F34,MID(D34,1+FIND("/",D34),999),IF(G34&gt;0,SUBSTITUTE(SUBSTITUTE(D34,"/README.md",".html"),"/","_"),SUBSTITUTE(D34,"/","_")&amp;".html"))</f>
+        <v>01_BlinkingLED.html</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/03_YakityYak", "03_YakityYak.html"],</v>
+        <f>"    ["""&amp;B34&amp;""", """&amp;J34&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/01_BlinkingLED", "01_BlinkingLED.html"],</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>LEN(B35)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B35)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="2"/>
-        <v>ArduinoCode</v>
+        <f>MID(B35,C35,9999)</f>
+        <v>03_YakityYak</v>
       </c>
       <c r="E35">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D35,"*.png*")+COUNTIF($D35,"*.jpg*")+COUNTIF($D35,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D35,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D35,"*.md*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="H35">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="7"/>
-        <v>ArduinoCode.html</v>
+        <f>IF(0=SUM(E35:G35),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="5" t="str">
+        <f>IF(E35+F35,MID(D35,1+FIND("/",D35),999),IF(G35&gt;0,SUBSTITUTE(SUBSTITUTE(D35,"/README.md",".html"),"/","_"),SUBSTITUTE(D35,"/","_")&amp;".html"))</f>
+        <v>03_YakityYak.html</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/ArduinoCode", "ArduinoCode.html"],</v>
+        <f>"    ["""&amp;B35&amp;""", """&amp;J35&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/03_YakityYak", "03_YakityYak.html"],</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>LEN(B36)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f>FIND("master/",B36)+LEN("master")+1</f>
         <v>60</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="2"/>
-        <v>README.md</v>
+        <f>MID(B36,C36,9999)</f>
+        <v>ArduinoCode</v>
       </c>
       <c r="E36">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D36,"*.png*")+COUNTIF($D36,"*.jpg*")+COUNTIF($D36,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D36,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(COUNTIF($D36,"*.md*"),1,0)</f>
+        <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>221</v>
+        <f>IF(0=SUM(E36:G36),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="5" t="str">
+        <f>IF(E36+F36,MID(D36,1+FIND("/",D36),999),IF(G36&gt;0,SUBSTITUTE(SUBSTITUTE(D36,"/README.md",".html"),"/","_"),SUBSTITUTE(D36,"/","_")&amp;".html"))</f>
+        <v>ArduinoCode.html</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/README.md", "_index.html"],</v>
+        <f>"    ["""&amp;B36&amp;""", """&amp;J36&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master/ArduinoCode", "ArduinoCode.html"],</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>LEN(B37)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>FIND("master/",B37)+LEN("master")+1</f>
+        <v>60</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="2"/>
+        <f>MID(B37,C37,9999)</f>
         <v>README.md</v>
       </c>
       <c r="E37">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D37,"*.png*")+COUNTIF($D37,"*.jpg*")+COUNTIF($D37,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D37,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="5"/>
+        <f>IF(COUNTIF($D37,"*.md*"),1,0)</f>
         <v>1</v>
       </c>
       <c r="H37">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="4" t="s">
+        <f>IF(0=SUM(E37:G37),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/README.md", "_index.html"],</v>
+        <f>"    ["""&amp;B37&amp;""", """&amp;J37&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/blob/master/README.md", "_index.html"],</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>LEN(B38)</f>
-        <v>58</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C38" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38">
+        <f>FIND("master/",B38)+LEN("master")+1</f>
+        <v>59</v>
+      </c>
+      <c r="D38" t="str">
+        <f>MID(B38,C38,9999)</f>
+        <v>README.md</v>
       </c>
       <c r="E38">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($D38,"*.png*")+COUNTIF($D38,"*.jpg*")+COUNTIF($D38,"*.pdf*")</f>
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="4"/>
+        <f>IF(COUNTIF($D38,"*.xls*"),1,0)</f>
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(COUNTIF($D38,"*.md*"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="H38">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="4" t="s">
+        <f>IF(0=SUM(E38:G38),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master", "_index.html"],</v>
+        <f>"    ["""&amp;B38&amp;""", """&amp;J38&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/raw/master/README.md", "_index.html"],</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>LEN(B39)</f>
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" t="e">
+        <f>FIND("master/",B39)+LEN("master")+1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D39" t="e">
+        <f>MID(B39,C39,9999)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF($D39,"*.png*")+COUNTIF($D39,"*.jpg*")+COUNTIF($D39,"*.pdf*")</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>IF(COUNTIF($D39,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>IF(COUNTIF($D39,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>IF(0=SUM(E39:G39),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K39" t="str">
+        <f>"    ["""&amp;B39&amp;""", """&amp;J39&amp;"""],"</f>
+        <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass/tree/master", "_index.html"],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>LEN(B40)</f>
         <v>46</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C39" t="e">
-        <f t="shared" si="1"/>
+      <c r="C40" t="e">
+        <f>FIND("master/",B40)+LEN("master")+1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D39" t="e">
-        <f t="shared" si="2"/>
+      <c r="D40" t="e">
+        <f>MID(B40,C40,9999)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="4" t="s">
+      <c r="E40">
+        <f>COUNTIF($D40,"*.png*")+COUNTIF($D40,"*.jpg*")+COUNTIF($D40,"*.pdf*")</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>IF(COUNTIF($D40,"*.xls*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>IF(COUNTIF($D40,"*.md*"),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>IF(0=SUM(E40:G40),1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="0"/>
+      <c r="K40" t="str">
+        <f>"    ["""&amp;B40&amp;""", """&amp;J40&amp;"""],"</f>
         <v xml:space="preserve">    ["https://github.com/Mark-MDO47/CforArduinoClass", "_index.html"],</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K40">
+    <sortCondition descending="1" ref="A3:A40"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{79CE2A96-0584-4CAD-8E78-0EA8BEE8845A}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{C5459398-9BDC-4B0E-9D81-49D417C3A08F}"/>
+    <hyperlink ref="B39" r:id="rId1" xr:uid="{79CE2A96-0584-4CAD-8E78-0EA8BEE8845A}"/>
+    <hyperlink ref="B40" r:id="rId2" xr:uid="{C5459398-9BDC-4B0E-9D81-49D417C3A08F}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{82D2EF0B-20AF-4645-B2C3-DF46A7719767}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>